--- a/Monitorizações/Template.xlsx
+++ b/Monitorizações/Template.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\JavaWorkplace\ValToExcel\Monitorizações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734FC71D-546A-4AA2-A3D5-566D4478900F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4927CAF9-B447-4529-958B-BB0DB252A1DA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="828" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" tabRatio="828" windowHeight="11310" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="MSG DUMMY" sheetId="13" r:id="rId2"/>
-    <sheet name="Timeline" sheetId="9" r:id="rId3"/>
-    <sheet name="Legenda" sheetId="7" r:id="rId4"/>
-    <sheet name="VAL1" sheetId="3" r:id="rId5"/>
-    <sheet name="VAL2" sheetId="4" r:id="rId6"/>
-    <sheet name="VAL3" sheetId="5" r:id="rId7"/>
-    <sheet name="VAL4" sheetId="15" r:id="rId8"/>
-    <sheet name="VAL5" sheetId="10" r:id="rId9"/>
-    <sheet name="VAL6" sheetId="11" r:id="rId10"/>
-    <sheet name="VAL7" sheetId="12" r:id="rId11"/>
-    <sheet name="VAL8" sheetId="14" r:id="rId12"/>
-    <sheet name="VAl9" sheetId="17" r:id="rId13"/>
-    <sheet name="VAL10" sheetId="16" r:id="rId14"/>
-    <sheet name="VAL11" sheetId="18" r:id="rId15"/>
-    <sheet name="VAL12" sheetId="19" r:id="rId16"/>
-    <sheet name="VAL4_OLD" sheetId="6" r:id="rId17"/>
+    <sheet name="Overview" r:id="rId1" sheetId="1"/>
+    <sheet name="MSG DUMMY" r:id="rId2" sheetId="13"/>
+    <sheet name="Timeline" r:id="rId3" sheetId="9"/>
+    <sheet name="Legenda" r:id="rId4" sheetId="7"/>
+    <sheet name="VAL1" r:id="rId5" sheetId="3"/>
+    <sheet name="VAL2" r:id="rId6" sheetId="4"/>
+    <sheet name="VAL3" r:id="rId7" sheetId="5"/>
+    <sheet name="VAL4" r:id="rId8" sheetId="15"/>
+    <sheet name="VAL5" r:id="rId9" sheetId="10"/>
+    <sheet name="VAL6" r:id="rId10" sheetId="11"/>
+    <sheet name="VAL7" r:id="rId11" sheetId="12"/>
+    <sheet name="VAL8" r:id="rId12" sheetId="14"/>
+    <sheet name="VAl9" r:id="rId13" sheetId="17"/>
+    <sheet name="VAL10" r:id="rId14" sheetId="16"/>
+    <sheet name="VAL11" r:id="rId15" sheetId="18"/>
+    <sheet name="VAL12" r:id="rId16" sheetId="19"/>
+    <sheet name="VAL4_OLD" r:id="rId17" sheetId="6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="282">
   <si>
     <t>BO</t>
   </si>
@@ -887,18 +887,22 @@
   </si>
   <si>
     <t>09/04/1900 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy;@"/>
     <numFmt numFmtId="166" formatCode="[$-816]d/mmm;@"/>
     <numFmt numFmtId="167" formatCode="0000000000000"/>
     <numFmt numFmtId="168" formatCode="0000000000"/>
+    <numFmt numFmtId="169" formatCode="dd/MMM"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1553,386 +1557,391 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="16" fillId="3" fontId="8" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="17" fillId="4" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="0" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="142">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="147">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="22" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="3" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="2" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="17" fillId="4" fontId="10" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="16" fillId="3" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="2" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="19" fillId="0" fontId="12" numFmtId="0" xfId="4"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="16" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="24" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="5" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="5" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="26" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="9" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="5" numFmtId="9" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="16" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="5" numFmtId="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="0" fontId="5" numFmtId="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="5" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="24" fillId="5" fontId="14" numFmtId="16" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="23" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="29" fillId="6" fontId="14" numFmtId="16" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="13" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="30" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="29" fillId="6" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="31" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="7" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="7" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="7" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="33" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="22" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="38" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="37" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="33" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="38" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="14" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="29" fillId="6" fontId="14" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="40" fillId="6" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="33" fillId="7" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="40" fillId="6" fontId="14" numFmtId="16" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="18" numFmtId="166" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="17" numFmtId="168" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="17" numFmtId="168" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="3" numFmtId="168" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="19" numFmtId="168" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="19" numFmtId="168" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="22" fillId="0" fontId="3" numFmtId="168" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="20" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="5" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="22" fillId="0" fontId="5" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="41" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="34" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="35" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="36" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Cabeçalho 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18"/>
-    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="5" builtinId="5"/>
-    <cellStyle name="Saída" xfId="3" builtinId="21"/>
+    <cellStyle builtinId="16" name="Cabeçalho 1" xfId="1"/>
+    <cellStyle builtinId="18" name="Cabeçalho 3" xfId="4"/>
+    <cellStyle builtinId="20" name="Entrada" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="5" name="Percentagem" xfId="5"/>
+    <cellStyle builtinId="21" name="Saída" xfId="3"/>
   </cellStyles>
   <dxfs count="161">
     <dxf>
@@ -2247,8 +2256,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="General" numFmtId="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2262,7 +2271,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2276,7 +2285,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2290,7 +2299,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2304,7 +2313,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2318,8 +2327,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2333,8 +2342,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2348,7 +2357,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2362,7 +2371,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2376,7 +2385,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2390,8 +2399,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2405,7 +2414,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2419,8 +2428,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2434,7 +2443,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2448,7 +2457,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2462,7 +2471,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <border>
@@ -2483,8 +2492,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
+      <border diagonalDown="0" diagonalUp="0" outline="0">
         <left/>
         <right/>
         <top/>
@@ -2492,15 +2501,15 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt formatCode="dd/mm/yyyy\ hh:mm" numFmtId="27"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0000000000000"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0000000000000" numFmtId="167"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0000000000000"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0000000000000" numFmtId="167"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2519,8 +2528,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2539,8 +2548,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="dd/mm/yyyy" numFmtId="19"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2559,8 +2568,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="yyyy\-mm\-dd;@" numFmtId="164"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2579,8 +2588,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2599,8 +2608,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2619,8 +2628,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="dd/mm/yyyy\ hh:mm" numFmtId="27"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2639,8 +2648,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="dd/mm/yyyy\ hh:mm" numFmtId="27"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2659,8 +2668,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="dd\-mm\-yyyy;@" numFmtId="165"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2679,7 +2688,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2698,8 +2707,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2718,7 +2727,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2737,7 +2746,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2756,7 +2765,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2775,7 +2784,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2794,8 +2803,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2814,7 +2823,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2833,7 +2842,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2852,7 +2861,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2871,8 +2880,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2891,8 +2900,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="dd/mm/yyyy" numFmtId="19"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2911,8 +2920,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="yyyy\-mm\-dd;@" numFmtId="164"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2931,8 +2940,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2951,8 +2960,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2971,8 +2980,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="dd/mm/yyyy\ hh:mm" numFmtId="27"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2991,8 +3000,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="dd/mm/yyyy\ hh:mm" numFmtId="27"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3011,8 +3020,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="dd\-mm\-yyyy;@" numFmtId="165"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3031,7 +3040,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3050,8 +3059,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3070,7 +3079,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3089,7 +3098,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3103,7 +3112,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3117,7 +3126,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3131,7 +3140,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3145,7 +3154,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3159,7 +3168,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3173,7 +3182,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3187,7 +3196,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3201,7 +3210,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3215,8 +3224,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="yyyy\-mm\-dd;@" numFmtId="164"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3230,8 +3239,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="yyyy\-mm\-dd;@" numFmtId="164"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3245,8 +3254,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="General" numFmtId="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3260,8 +3269,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="General" numFmtId="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3275,7 +3284,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3289,8 +3298,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3304,7 +3313,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3318,10 +3327,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0000000000"/>
+      <numFmt formatCode="0000000000" numFmtId="168"/>
     </dxf>
     <dxf>
       <font>
@@ -3335,7 +3344,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <border>
@@ -3356,8 +3365,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
+      <border diagonalDown="0" diagonalUp="0" outline="0">
         <left/>
         <right/>
         <top/>
@@ -3381,14 +3390,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3413,7 +3422,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3438,7 +3447,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3463,7 +3472,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3495,7 +3504,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <border>
@@ -3527,8 +3536,8 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0" outline="0">
         <left/>
         <right/>
         <top/>
@@ -3548,14 +3557,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3580,7 +3589,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3605,7 +3614,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3630,7 +3639,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3650,7 +3659,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3677,7 +3686,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <border>
@@ -3709,8 +3718,8 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0" outline="0">
         <left/>
         <right/>
         <top/>
@@ -3734,8 +3743,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -3765,8 +3774,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
         <left/>
         <right style="thin">
           <color theme="4"/>
@@ -3780,7 +3789,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3795,14 +3804,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -3827,7 +3836,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3852,7 +3861,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3872,7 +3881,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3899,7 +3908,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <border>
@@ -3931,8 +3940,8 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0" outline="0">
         <left/>
         <right/>
         <top/>
@@ -3956,8 +3965,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -3987,8 +3996,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
         <left/>
         <right/>
         <top style="thin">
@@ -4000,7 +4009,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4019,8 +4028,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="General" numFmtId="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4039,7 +4048,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4058,7 +4067,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4077,7 +4086,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4096,7 +4105,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4115,7 +4124,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4134,7 +4143,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4160,7 +4169,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4185,15 +4194,15 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt formatCode="@" numFmtId="30"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -4205,13 +4214,13 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" wrapText="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4230,7 +4239,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4249,8 +4258,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -4262,19 +4271,19 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4293,7 +4302,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4312,8 +4321,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -4325,7 +4334,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
     </dxf>
     <dxf>
       <font>
@@ -4339,8 +4348,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="General" numFmtId="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -4356,8 +4365,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt formatCode="General" numFmtId="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -4372,7 +4381,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4393,7 +4402,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center"/>
     </dxf>
     <dxf>
       <border>
@@ -4415,8 +4424,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <border diagonalDown="0" diagonalUp="0" outline="0">
         <left/>
         <right/>
         <top/>
@@ -4424,7 +4433,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFCC0000"/>
@@ -4442,7 +4451,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -4460,7 +4469,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4097" name="Object 1" hidden="1">
+            <xdr:cNvPr hidden="1" id="4097" name="Object 1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4097"/>
@@ -4481,11 +4490,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr a14:legacySpreadsheetColorIndex="65" mc:Ignorable="a14" val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -4502,7 +4511,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -4520,7 +4529,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+            <xdr:cNvPr hidden="1" id="2049" name="Object 1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2049"/>
@@ -4541,11 +4550,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr a14:legacySpreadsheetColorIndex="65" mc:Ignorable="a14" val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -4575,7 +4584,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
+            <xdr:cNvPr hidden="1" id="2050" name="Object 2">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2050"/>
@@ -4596,11 +4605,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr a14:legacySpreadsheetColorIndex="65" mc:Ignorable="a14" val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -4630,7 +4639,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="Object 3" hidden="1">
+            <xdr:cNvPr hidden="1" id="2051" name="Object 3">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2051"/>
@@ -4651,11 +4660,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              <a:srgbClr a14:legacySpreadsheetColorIndex="65" mc:Ignorable="a14" val="FFFFFF"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                <a:srgbClr a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="000000"/>
               </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
@@ -4672,481 +4681,481 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A6:C17" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="158" displayName="Table1" headerRowBorderDxfId="159" headerRowDxfId="160" id="1" mc:Ignorable="xr xr3" name="Table1" ref="A6:C17" tableBorderDxfId="157" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
   <autoFilter ref="A6:C17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Validation" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Result" dataDxfId="155">
+    <tableColumn dataDxfId="156" id="1" name="Validation" xr3:uid="{00000000-0010-0000-0000-000001000000}"/>
+    <tableColumn dataDxfId="155" id="2" name="Result" xr3:uid="{00000000-0010-0000-0000-000002000000}">
       <calculatedColumnFormula>VLOOKUP('VAL1'!F1,TblOkNok[[OK/NOK]:[Valor]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Observações" dataDxfId="154">
+    <tableColumn dataDxfId="154" id="3" name="Observações" xr3:uid="{00000000-0010-0000-0000-000003000000}">
       <calculatedColumnFormula>VLOOKUP('VAL1'!G1,Legenda!B2:D3,TblOkNok[[#All],[Valor]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table12" displayName="Table12" ref="J3:T10" totalsRowShown="0" headerRowDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table12" headerRowDxfId="131" id="12" mc:Ignorable="xr xr3" name="Table12" ref="J3:T10" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}">
   <autoFilter ref="J3:T10" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Msgs &gt; 10" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="06/jul" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="09/jul"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="10/jul"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="11/jul"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="12/jul"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="13/jul"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="20/jul"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="23/jul"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="24/jul"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="26/jul"/>
+    <tableColumn dataDxfId="130" id="1" name="Msgs &gt; 10" xr3:uid="{00000000-0010-0000-0600-000001000000}"/>
+    <tableColumn dataDxfId="129" id="2" name="06/jul" xr3:uid="{00000000-0010-0000-0600-000002000000}"/>
+    <tableColumn id="3" name="09/jul" xr3:uid="{00000000-0010-0000-0600-000003000000}"/>
+    <tableColumn id="4" name="10/jul" xr3:uid="{00000000-0010-0000-0600-000004000000}"/>
+    <tableColumn id="5" name="11/jul" xr3:uid="{00000000-0010-0000-0600-000005000000}"/>
+    <tableColumn id="6" name="12/jul" xr3:uid="{00000000-0010-0000-0600-000006000000}"/>
+    <tableColumn id="7" name="13/jul" xr3:uid="{00000000-0010-0000-0600-000007000000}"/>
+    <tableColumn id="8" name="20/jul" xr3:uid="{00000000-0010-0000-0600-000008000000}"/>
+    <tableColumn id="9" name="23/jul" xr3:uid="{00000000-0010-0000-0600-000009000000}"/>
+    <tableColumn id="10" name="24/jul" xr3:uid="{00000000-0010-0000-0600-00000A000000}"/>
+    <tableColumn id="11" name="26/jul" xr3:uid="{00000000-0010-0000-0600-00000B000000}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="TblVal2" displayName="TblVal2" ref="A4:D11" totalsRowShown="0" headerRowDxfId="128" dataDxfId="126" headerRowBorderDxfId="127" tableBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="126" displayName="TblVal2" headerRowBorderDxfId="127" headerRowDxfId="128" id="3" mc:Ignorable="xr xr3" name="TblVal2" ref="A4:D11" tableBorderDxfId="125" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}">
   <autoFilter ref="A4:D11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Column2" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="% Excedido" dataDxfId="122">
+    <tableColumn dataDxfId="124" id="1" name="Column1" xr3:uid="{00000000-0010-0000-0700-000001000000}"/>
+    <tableColumn dataDxfId="123" id="3" name="Column2" xr3:uid="{00000000-0010-0000-0700-000003000000}"/>
+    <tableColumn dataDxfId="122" id="4" name="% Excedido" xr3:uid="{00000000-0010-0000-0700-000004000000}">
       <calculatedColumnFormula>IF(TblVal2[[#This Row],[Controlo]]="NOK",IF(ISERROR(VLOOKUP(TblVal2[[#This Row],[Column2]],ThresPorProc[],2,FALSE)),IF(TblVal2[[#This Row],[Column1]]&gt;VLOOKUP("Default",ThresPorProc[],2,FALSE), (VLOOKUP("Default",ThresPorProc[],2,FALSE)/TblVal2[[#This Row],[Column1]]), 0),(VLOOKUP(TblVal2[[#This Row],[Column2]],ThresPorProc[],2,FALSE)/TblVal2[[#This Row],[Column1]])),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Controlo" dataDxfId="121">
+    <tableColumn dataDxfId="121" id="2" name="Controlo" xr3:uid="{00000000-0010-0000-0700-000002000000}">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(TblVal2[[#This Row],[Column2]],ThresPorProc[],2,FALSE)),IF(TblVal2[[#This Row],[Column1]]&gt;VLOOKUP("Default",ThresPorProc[],2,FALSE), "NOK", "OK"),IF(TblVal2[[#This Row],[Column1]]&gt;VLOOKUP(TblVal2[[#This Row],[Column2]],ThresPorProc[],2,FALSE), "NOK", "OK"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table13" displayName="Table13" ref="M4:W10" totalsRowShown="0" headerRowDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table13" headerRowDxfId="120" id="13" mc:Ignorable="xr xr3" name="Table13" ref="M4:W10" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}">
   <autoFilter ref="M4:W10" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="3" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="06/jul" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="10/jul"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="11/jul"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="12/jul"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="13/jul"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="17/jul"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="18/jul"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="19/jul"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="24/jul"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="25/jul"/>
+    <tableColumn dataDxfId="119" id="1" name="3" xr3:uid="{00000000-0010-0000-0800-000001000000}"/>
+    <tableColumn dataDxfId="118" id="2" name="06/jul" xr3:uid="{00000000-0010-0000-0800-000002000000}"/>
+    <tableColumn id="3" name="10/jul" xr3:uid="{00000000-0010-0000-0800-000003000000}"/>
+    <tableColumn id="4" name="11/jul" xr3:uid="{00000000-0010-0000-0800-000004000000}"/>
+    <tableColumn id="5" name="12/jul" xr3:uid="{00000000-0010-0000-0800-000005000000}"/>
+    <tableColumn id="6" name="13/jul" xr3:uid="{00000000-0010-0000-0800-000006000000}"/>
+    <tableColumn id="7" name="17/jul" xr3:uid="{00000000-0010-0000-0800-000007000000}"/>
+    <tableColumn id="8" name="18/jul" xr3:uid="{00000000-0010-0000-0800-000008000000}"/>
+    <tableColumn id="9" name="19/jul" xr3:uid="{00000000-0010-0000-0800-000009000000}"/>
+    <tableColumn id="10" name="24/jul" xr3:uid="{00000000-0010-0000-0800-00000A000000}"/>
+    <tableColumn id="11" name="25/jul" xr3:uid="{00000000-0010-0000-0800-00000B000000}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TblVal215" displayName="TblVal215" ref="F4:J12" totalsRowShown="0" headerRowDxfId="117" dataDxfId="115" headerRowBorderDxfId="116" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="115" displayName="TblVal215" headerRowBorderDxfId="116" headerRowDxfId="117" id="14" mc:Ignorable="xr xr3" name="TblVal215" ref="F4:J12" tableBorderDxfId="114" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}">
   <autoFilter ref="F4:J12" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="20" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Marketing" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Estado" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="% Excedido" dataDxfId="110">
+    <tableColumn dataDxfId="113" id="1" name="20" xr3:uid="{00000000-0010-0000-0900-000001000000}"/>
+    <tableColumn dataDxfId="112" id="3" name="Marketing" xr3:uid="{00000000-0010-0000-0900-000003000000}"/>
+    <tableColumn dataDxfId="111" id="5" name="Estado" xr3:uid="{00000000-0010-0000-0900-000005000000}"/>
+    <tableColumn dataDxfId="110" id="4" name="% Excedido" xr3:uid="{00000000-0010-0000-0900-000004000000}">
       <calculatedColumnFormula>IF(TblVal215[[#This Row],[Controlo]]="NOK",IF(ISERROR(VLOOKUP(TblVal215[[#This Row],[Marketing]],ThresPorProc[],2,FALSE)),IF(TblVal215[[#This Row],[20]]&gt;VLOOKUP("Default",ThresPorProc[],2,FALSE), (VLOOKUP("Default",ThresPorProc[],2,FALSE)/TblVal215[[#This Row],[20]]), 0),(VLOOKUP(TblVal215[[#This Row],[Marketing]],ThresPorProc[],2,FALSE)/TblVal215[[#This Row],[20]])),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Controlo" dataDxfId="109">
+    <tableColumn dataDxfId="109" id="2" name="Controlo" xr3:uid="{00000000-0010-0000-0900-000002000000}">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(TblVal215[[#This Row],[Marketing]],ThresPorProc[],2,FALSE)),IF(TblVal215[[#This Row],[20]]&gt;VLOOKUP("Default",ThresPorProc[],2,FALSE), "NOK", "OK"),IF(TblVal215[[#This Row],[20]]&gt;VLOOKUP(TblVal215[[#This Row],[Marketing]],ThresPorProc[],2,FALSE), "NOK", "OK"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="TblVal3" displayName="TblVal3" ref="A3:D4" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="106" displayName="TblVal3" headerRowBorderDxfId="107" headerRowDxfId="108" id="6" mc:Ignorable="xr xr3" name="TblVal3" ref="A3:D4" tableBorderDxfId="105" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}">
   <autoFilter ref="A3:D4" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Id Caso" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Erro" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Último log" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Controlo" dataDxfId="101"/>
+    <tableColumn dataDxfId="104" id="1" name="Id Caso" xr3:uid="{00000000-0010-0000-0A00-000001000000}"/>
+    <tableColumn dataDxfId="103" id="3" name="Erro" xr3:uid="{00000000-0010-0000-0A00-000003000000}"/>
+    <tableColumn dataDxfId="102" id="4" name="Último log" xr3:uid="{00000000-0010-0000-0A00-000004000000}"/>
+    <tableColumn dataDxfId="101" id="2" name="Controlo" xr3:uid="{00000000-0010-0000-0A00-000002000000}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table11" displayName="Table11" ref="A13:C19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table11" id="11" mc:Ignorable="xr xr3" name="Table11" ref="A13:C19" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}">
   <autoFilter ref="A13:C19" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Caso Justificados"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Mensagem"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Evidência"/>
+    <tableColumn id="1" name="Caso Justificados" xr3:uid="{00000000-0010-0000-0B00-000001000000}"/>
+    <tableColumn id="2" name="Mensagem" xr3:uid="{00000000-0010-0000-0B00-000002000000}"/>
+    <tableColumn id="3" name="Evidência" xr3:uid="{00000000-0010-0000-0B00-000003000000}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="TblVal4" displayName="TblVal4" ref="A3:Q4" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="98" displayName="TblVal4" headerRowBorderDxfId="99" headerRowDxfId="100" id="5" mc:Ignorable="xr xr3" name="TblVal4" ref="A3:Q4" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}">
   <autoFilter ref="A3:Q4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState ref="A4:Q16">
     <sortCondition ref="A3:A11"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="PS" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name=" CUPS" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name=" CONFIG_ID" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name=" SA_STATUS" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="WRONG_CLOSE_CFG" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="1000" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0C00-000008000000}" name="1297 Via Cola di Rie" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="REMOVAL_DT" dataDxfId="90"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="SA_START_DT" dataDxfId="89"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0C00-00000B000000}" name=" SA_END_DT" dataDxfId="88"/>
-    <tableColumn id="12" xr3:uid="{2B01302C-6BCA-4621-B144-0AA10E08A0E2}" name=" CMEDATRD_FECHAFIN_CONTRATO_ATR" dataDxfId="87"/>
-    <tableColumn id="13" xr3:uid="{D4E0ED4E-79AC-43C2-9FEA-0C5A44431EF4}" name=" SA_EXPIRE_DT" dataDxfId="86"/>
-    <tableColumn id="14" xr3:uid="{1377E31A-D49C-4A1B-ACCE-3350F966890F}" name=" SA_RENEWAL_DT" dataDxfId="85"/>
-    <tableColumn id="15" xr3:uid="{C8399DC9-FADE-458B-AE7E-BABCBB52CD5D}" name=" SASP_START_MR" dataDxfId="84"/>
-    <tableColumn id="16" xr3:uid="{B00C4197-D812-4896-A4B1-9A70673AFF13}" name="SASP_START_DTTM" dataDxfId="83"/>
-    <tableColumn id="17" xr3:uid="{56D459EA-7A8B-410F-A3BE-DB69D3869D61}" name="SASP_STOP_MR" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{10504011-051C-45ED-8AD1-382C75F839EB}" name="SASP_STOP_DT" dataDxfId="81"/>
+    <tableColumn dataDxfId="97" id="1" name="PS" xr3:uid="{00000000-0010-0000-0C00-000001000000}"/>
+    <tableColumn dataDxfId="96" id="2" name=" CUPS" xr3:uid="{00000000-0010-0000-0C00-000002000000}"/>
+    <tableColumn dataDxfId="95" id="4" name=" CONFIG_ID" xr3:uid="{00000000-0010-0000-0C00-000004000000}"/>
+    <tableColumn dataDxfId="94" id="5" name=" SA_STATUS" xr3:uid="{00000000-0010-0000-0C00-000005000000}"/>
+    <tableColumn dataDxfId="93" id="6" name="WRONG_CLOSE_CFG" xr3:uid="{00000000-0010-0000-0C00-000006000000}"/>
+    <tableColumn dataDxfId="92" id="7" name="1000" xr3:uid="{00000000-0010-0000-0C00-000007000000}"/>
+    <tableColumn dataDxfId="91" id="8" name="1297 Via Cola di Rie" xr3:uid="{00000000-0010-0000-0C00-000008000000}"/>
+    <tableColumn dataDxfId="90" id="9" name="REMOVAL_DT" xr3:uid="{00000000-0010-0000-0C00-000009000000}"/>
+    <tableColumn dataDxfId="89" id="10" name="SA_START_DT" xr3:uid="{00000000-0010-0000-0C00-00000A000000}"/>
+    <tableColumn dataDxfId="88" id="11" name=" SA_END_DT" xr3:uid="{00000000-0010-0000-0C00-00000B000000}"/>
+    <tableColumn dataDxfId="87" id="12" name=" CMEDATRD_FECHAFIN_CONTRATO_ATR" xr3:uid="{2B01302C-6BCA-4621-B144-0AA10E08A0E2}"/>
+    <tableColumn dataDxfId="86" id="13" name=" SA_EXPIRE_DT" xr3:uid="{D4E0ED4E-79AC-43C2-9FEA-0C5A44431EF4}"/>
+    <tableColumn dataDxfId="85" id="14" name=" SA_RENEWAL_DT" xr3:uid="{1377E31A-D49C-4A1B-ACCE-3350F966890F}"/>
+    <tableColumn dataDxfId="84" id="15" name=" SASP_START_MR" xr3:uid="{C8399DC9-FADE-458B-AE7E-BABCBB52CD5D}"/>
+    <tableColumn dataDxfId="83" id="16" name="SASP_START_DTTM" xr3:uid="{B00C4197-D812-4896-A4B1-9A70673AFF13}"/>
+    <tableColumn dataDxfId="82" id="17" name="SASP_STOP_MR" xr3:uid="{56D459EA-7A8B-410F-A3BE-DB69D3869D61}"/>
+    <tableColumn dataDxfId="81" id="3" name="SASP_STOP_DT" xr3:uid="{10504011-051C-45ED-8AD1-382C75F839EB}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{AC86CBBD-FE27-4CAB-BFD9-165415AF4B1C}" name="Table15" displayName="Table15" ref="A3:L4" totalsRowShown="0" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="80" displayName="Table15" id="15" mc:Ignorable="xr xr3" name="Table15" ref="A3:L4" totalsRowShown="0" xr:uid="{AC86CBBD-FE27-4CAB-BFD9-165415AF4B1C}">
   <autoFilter ref="A3:L4" xr:uid="{4B2835E9-F319-4901-8B4E-E5CA2F638198}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{63177041-DC82-4160-95F1-E7074EDAE2FF}" name="SP_ID"/>
-    <tableColumn id="2" xr3:uid="{962D8349-2EC4-4AA8-A120-8DE77E57309A}" name="GEO_VAL" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{E32C706C-88D9-4344-AF85-87BD2E061B85}" name="CSPROC_ID" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{24DBAFF9-8351-4119-B8B4-3FF6B139E54C}" name="CHAR_VAL" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{149BEF54-2D25-458C-B4DC-6EFC5F6056A4}" name="Data da caracteristica" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{9695BB50-742D-4D25-AC88-9CC997FC3F8B}" name="09/04/1900 00:00" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{F23442DB-8E25-46EC-9552-D6DD648DEE41}" name="Steven" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{E58C9F99-F71D-4D30-ADDE-409DCB14C253}" name="King" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{5312CFD0-12CA-4111-9667-23C9CADC0872}" name="SKING" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{2AA04F97-904F-4DB5-B394-9C2E00CD7653}" name="515.123.4567" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{5E45498E-E351-4CE5-B941-77061B7C6B47}" name="2003-06-17 00:00:00.0" dataDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{D47DB753-E21E-4DD4-90C4-D9C22B582B73}" name="AD_PRES" dataDxfId="69"/>
+    <tableColumn id="1" name="SP_ID" xr3:uid="{63177041-DC82-4160-95F1-E7074EDAE2FF}"/>
+    <tableColumn dataDxfId="79" id="2" name="GEO_VAL" xr3:uid="{962D8349-2EC4-4AA8-A120-8DE77E57309A}"/>
+    <tableColumn dataDxfId="78" id="3" name="CSPROC_ID" xr3:uid="{E32C706C-88D9-4344-AF85-87BD2E061B85}"/>
+    <tableColumn dataDxfId="77" id="4" name="CHAR_VAL" xr3:uid="{24DBAFF9-8351-4119-B8B4-3FF6B139E54C}"/>
+    <tableColumn dataDxfId="76" id="5" name="Data da caracteristica" xr3:uid="{149BEF54-2D25-458C-B4DC-6EFC5F6056A4}"/>
+    <tableColumn dataDxfId="75" id="6" name="09/04/1900 00:00" xr3:uid="{9695BB50-742D-4D25-AC88-9CC997FC3F8B}"/>
+    <tableColumn dataDxfId="74" id="7" name="Steven" xr3:uid="{F23442DB-8E25-46EC-9552-D6DD648DEE41}"/>
+    <tableColumn dataDxfId="73" id="8" name="King" xr3:uid="{E58C9F99-F71D-4D30-ADDE-409DCB14C253}"/>
+    <tableColumn dataDxfId="72" id="9" name="SKING" xr3:uid="{5312CFD0-12CA-4111-9667-23C9CADC0872}"/>
+    <tableColumn dataDxfId="71" id="10" name="515.123.4567" xr3:uid="{2AA04F97-904F-4DB5-B394-9C2E00CD7653}"/>
+    <tableColumn dataDxfId="70" id="11" name="2003-06-17 00:00:00.0" xr3:uid="{5E45498E-E351-4CE5-B941-77061B7C6B47}"/>
+    <tableColumn dataDxfId="69" id="12" name="AD_PRES" xr3:uid="{D47DB753-E21E-4DD4-90C4-D9C22B582B73}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{3E6B49DF-962C-4BFF-8404-A89CD116450D}" name="Table1518" displayName="Table1518" ref="A3:D4" totalsRowShown="0" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="68" displayName="Table1518" id="17" mc:Ignorable="xr xr3" name="Table1518" ref="A3:D4" totalsRowShown="0" xr:uid="{3E6B49DF-962C-4BFF-8404-A89CD116450D}">
   <autoFilter ref="A3:D4" xr:uid="{B87A80F8-B03D-4977-9547-EFEBC3B4A593}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{141019ED-2B59-4E5D-9969-A79C01B7234C}" name="SP_ID" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{3C8BCE23-130C-4CE7-9D5F-870F3D79C50C}" name="MTR_CONFIG_ID" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{0E201413-E3DF-48D6-B47C-888218D2EB93}" name="SATYPE" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{DAC71101-FFFF-4B5B-A39F-B8F9CD64CD9F}" name="COUNTSASACTIVOORDOUBLECONFIG" dataDxfId="64"/>
+    <tableColumn dataDxfId="67" id="1" name="SP_ID" xr3:uid="{141019ED-2B59-4E5D-9969-A79C01B7234C}"/>
+    <tableColumn dataDxfId="66" id="2" name="MTR_CONFIG_ID" xr3:uid="{3C8BCE23-130C-4CE7-9D5F-870F3D79C50C}"/>
+    <tableColumn dataDxfId="65" id="3" name="SATYPE" xr3:uid="{0E201413-E3DF-48D6-B47C-888218D2EB93}"/>
+    <tableColumn dataDxfId="64" id="4" name="COUNTSASACTIVOORDOUBLECONFIG" xr3:uid="{DAC71101-FFFF-4B5B-A39F-B8F9CD64CD9F}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{7DA306E6-E8B6-47E6-9C0A-E0ADA0EDE84A}" name="Table151819" displayName="Table151819" ref="A3:L4" insertRow="1" totalsRowShown="0" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="63" displayName="Table151819" id="18" insertRow="1" mc:Ignorable="xr xr3" name="Table151819" ref="A3:L4" totalsRowShown="0" xr:uid="{7DA306E6-E8B6-47E6-9C0A-E0ADA0EDE84A}">
   <autoFilter ref="A3:L4" xr:uid="{AE709FAA-EDCA-4971-9D9B-B8E5EB4E448D}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{07DCF3D4-A283-4F5D-9504-C7EFD2884590}" name="SP_ID" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{DF99A043-2ADE-4A1C-AEB9-69D2C4BF7655}" name="GEO_VAL" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{74E93F8B-1ED3-47C6-A726-D0CA21E0CB98}" name="CSPROC_ID" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{8966D8B8-7EF4-4F01-8320-08246E18B0E2}" name="CHAR_VAL" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{F8140376-90A8-4D87-B3BE-C804C4A83BDA}" name="Data da caracteristica" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{03650016-D612-4B9E-A20F-BA0D8C0ACB6A}" name="Data de remocao" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{45D17300-B5C9-4DA1-81CA-F59D67C1F902}" name="Data da leitura" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{C493B1C4-52CF-4D3A-8151-6E9F37EB7277}" name="MTR_CONFIG_ID" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{3091DF62-871B-4BAA-B4CA-51390DAE7A80}" name="MR_ID" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{5ED8EBE0-CAD8-4CDA-9679-ABE97194930F}" name="Data activacao Swout" dataDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{B6E5F179-4CF9-46D9-96C0-DD971EED4BDE}" name="Diferenca" dataDxfId="52"/>
-    <tableColumn id="12" xr3:uid="{D5811851-FE79-4A47-8EB6-5498777E62CB}" name="leitura - CMATRSTA" dataDxfId="51"/>
+    <tableColumn dataDxfId="62" id="1" name="SP_ID" xr3:uid="{07DCF3D4-A283-4F5D-9504-C7EFD2884590}"/>
+    <tableColumn dataDxfId="61" id="2" name="GEO_VAL" xr3:uid="{DF99A043-2ADE-4A1C-AEB9-69D2C4BF7655}"/>
+    <tableColumn dataDxfId="60" id="3" name="CSPROC_ID" xr3:uid="{74E93F8B-1ED3-47C6-A726-D0CA21E0CB98}"/>
+    <tableColumn dataDxfId="59" id="4" name="CHAR_VAL" xr3:uid="{8966D8B8-7EF4-4F01-8320-08246E18B0E2}"/>
+    <tableColumn dataDxfId="58" id="5" name="Data da caracteristica" xr3:uid="{F8140376-90A8-4D87-B3BE-C804C4A83BDA}"/>
+    <tableColumn dataDxfId="57" id="6" name="Data de remocao" xr3:uid="{03650016-D612-4B9E-A20F-BA0D8C0ACB6A}"/>
+    <tableColumn dataDxfId="56" id="7" name="Data da leitura" xr3:uid="{45D17300-B5C9-4DA1-81CA-F59D67C1F902}"/>
+    <tableColumn dataDxfId="55" id="8" name="MTR_CONFIG_ID" xr3:uid="{C493B1C4-52CF-4D3A-8151-6E9F37EB7277}"/>
+    <tableColumn dataDxfId="54" id="9" name="MR_ID" xr3:uid="{3091DF62-871B-4BAA-B4CA-51390DAE7A80}"/>
+    <tableColumn dataDxfId="53" id="10" name="Data activacao Swout" xr3:uid="{5ED8EBE0-CAD8-4CDA-9679-ABE97194930F}"/>
+    <tableColumn dataDxfId="52" id="11" name="Diferenca" xr3:uid="{B6E5F179-4CF9-46D9-96C0-DD971EED4BDE}"/>
+    <tableColumn dataDxfId="51" id="12" name="leitura - CMATRSTA" xr3:uid="{D5811851-FE79-4A47-8EB6-5498777E62CB}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{FF1F7E2D-3528-4142-A9B4-87D234959D4C}" name="Table20" displayName="Table20" ref="B2:G4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table20" id="20" mc:Ignorable="xr xr3" name="Table20" ref="B2:G4" totalsRowShown="0" xr:uid="{FF1F7E2D-3528-4142-A9B4-87D234959D4C}">
   <autoFilter ref="B2:G4" xr:uid="{8F761AB5-50C3-4824-AE18-4FB107655B7E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7B11B4C9-CC91-4F75-8B86-AC9D73315F4F}" name="cups"/>
-    <tableColumn id="2" xr3:uid="{3938A6CC-C5AA-4E89-B704-22852D8010F9}" name="csmsg id" dataDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{EF95EF20-2EF7-476E-8A9A-54BD1D4153C2}" name="bo"/>
-    <tableColumn id="7" xr3:uid="{A71FB1AB-EC4F-47F1-8909-E624309FFED8}" name="bo original status"/>
-    <tableColumn id="4" xr3:uid="{A962FAE6-5C12-4E31-8A2A-775A9D424C70}" name="bo status"/>
-    <tableColumn id="5" xr3:uid="{33206701-2627-4B9F-B7AF-F33AFD25B7F2}" name="Observações"/>
+    <tableColumn id="1" name="cups" xr3:uid="{7B11B4C9-CC91-4F75-8B86-AC9D73315F4F}"/>
+    <tableColumn dataDxfId="153" id="2" name="csmsg id" xr3:uid="{3938A6CC-C5AA-4E89-B704-22852D8010F9}"/>
+    <tableColumn id="3" name="bo" xr3:uid="{EF95EF20-2EF7-476E-8A9A-54BD1D4153C2}"/>
+    <tableColumn id="7" name="bo original status" xr3:uid="{A71FB1AB-EC4F-47F1-8909-E624309FFED8}"/>
+    <tableColumn id="4" name="bo status" xr3:uid="{A962FAE6-5C12-4E31-8A2A-775A9D424C70}"/>
+    <tableColumn id="5" name="Observações" xr3:uid="{33206701-2627-4B9F-B7AF-F33AFD25B7F2}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight16" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A7E72347-88B9-4111-8D71-A0A303B6246F}" name="Table24" displayName="Table24" ref="A4:Q5" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table24" id="24" insertRow="1" mc:Ignorable="xr xr3" name="Table24" ref="A4:Q5" totalsRowShown="0" xr:uid="{A7E72347-88B9-4111-8D71-A0A303B6246F}">
   <autoFilter ref="A4:Q5" xr:uid="{39291073-9D23-4D02-B73D-2851B6C20439}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{FFAF9800-9571-4A5E-8E0D-92F78F9C0AEF}" name="CSPROC_ID"/>
-    <tableColumn id="2" xr3:uid="{E0118CA6-63E0-47F9-92CF-76B0E77270B5}" name="BUS_OBJ_CD"/>
-    <tableColumn id="3" xr3:uid="{23C792CF-70BA-4F49-AD14-99A31BA520CA}" name=" BO_STATUS_CD, "/>
-    <tableColumn id="4" xr3:uid="{14B3D4BC-583E-48A6-84E7-F50B84D3CC73}" name="BO_STATUS_DTTM"/>
-    <tableColumn id="5" xr3:uid="{5B537FB4-BC25-465C-A2F2-BE88E65129E1}" name="CS_MARK_PROC"/>
-    <tableColumn id="6" xr3:uid="{553924C0-5BB2-4C01-AF2F-ACE9FAC29D08}" name="SVC_TYPE_CD"/>
-    <tableColumn id="7" xr3:uid="{3FA45F37-A36C-44CE-9743-67C12E00F695}" name="COUNTRY"/>
-    <tableColumn id="8" xr3:uid="{85F250E6-A5F7-42E1-A9C6-FEB9C54AEC09}" name="SP_ID"/>
-    <tableColumn id="9" xr3:uid="{3FBCF958-F6D3-44BC-ACFA-C5C1B07A9E9D}" name="ACCT_ID"/>
-    <tableColumn id="10" xr3:uid="{5FB8E22B-E5A1-4283-88A5-0502AEAB9AC2}" name="PREM_ID"/>
-    <tableColumn id="11" xr3:uid="{8C0D95B2-4D31-413D-AEB0-0FF42AC074C0}" name="UA_ID"/>
-    <tableColumn id="12" xr3:uid="{EB62A933-A500-462A-9863-9F32CB18DB8D}" name="SA_ATR_ID"/>
-    <tableColumn id="13" xr3:uid="{CDA58A95-6CCB-4F5B-A0BD-528A1BC8A347}" name="SA_ML_ID"/>
-    <tableColumn id="14" xr3:uid="{4DB8560B-16DD-4E20-AC38-0C9B9DFDC982}" name="CSPROC_EF_DTTM"/>
-    <tableColumn id="15" xr3:uid="{803E65E7-AECE-4E90-9A15-4E572BF161B5}" name="VERSION, USER_ID"/>
-    <tableColumn id="16" xr3:uid="{AE94139E-9C92-4B30-B8CE-171181090626}" name="CSPROC_CORR_ID"/>
-    <tableColumn id="17" xr3:uid="{BA78C14D-119F-4B66-919B-74820B8F2B83}" name="CM_CS_CUPS_CPE"/>
+    <tableColumn id="1" name="CSPROC_ID" xr3:uid="{FFAF9800-9571-4A5E-8E0D-92F78F9C0AEF}"/>
+    <tableColumn id="2" name="BUS_OBJ_CD" xr3:uid="{E0118CA6-63E0-47F9-92CF-76B0E77270B5}"/>
+    <tableColumn id="3" name=" BO_STATUS_CD, " xr3:uid="{23C792CF-70BA-4F49-AD14-99A31BA520CA}"/>
+    <tableColumn id="4" name="BO_STATUS_DTTM" xr3:uid="{14B3D4BC-583E-48A6-84E7-F50B84D3CC73}"/>
+    <tableColumn id="5" name="CS_MARK_PROC" xr3:uid="{5B537FB4-BC25-465C-A2F2-BE88E65129E1}"/>
+    <tableColumn id="6" name="SVC_TYPE_CD" xr3:uid="{553924C0-5BB2-4C01-AF2F-ACE9FAC29D08}"/>
+    <tableColumn id="7" name="COUNTRY" xr3:uid="{3FA45F37-A36C-44CE-9743-67C12E00F695}"/>
+    <tableColumn id="8" name="SP_ID" xr3:uid="{85F250E6-A5F7-42E1-A9C6-FEB9C54AEC09}"/>
+    <tableColumn id="9" name="ACCT_ID" xr3:uid="{3FBCF958-F6D3-44BC-ACFA-C5C1B07A9E9D}"/>
+    <tableColumn id="10" name="PREM_ID" xr3:uid="{5FB8E22B-E5A1-4283-88A5-0502AEAB9AC2}"/>
+    <tableColumn id="11" name="UA_ID" xr3:uid="{8C0D95B2-4D31-413D-AEB0-0FF42AC074C0}"/>
+    <tableColumn id="12" name="SA_ATR_ID" xr3:uid="{EB62A933-A500-462A-9863-9F32CB18DB8D}"/>
+    <tableColumn id="13" name="SA_ML_ID" xr3:uid="{CDA58A95-6CCB-4F5B-A0BD-528A1BC8A347}"/>
+    <tableColumn id="14" name="CSPROC_EF_DTTM" xr3:uid="{4DB8560B-16DD-4E20-AC38-0C9B9DFDC982}"/>
+    <tableColumn id="15" name="VERSION, USER_ID" xr3:uid="{803E65E7-AECE-4E90-9A15-4E572BF161B5}"/>
+    <tableColumn id="16" name="CSPROC_CORR_ID" xr3:uid="{AE94139E-9C92-4B30-B8CE-171181090626}"/>
+    <tableColumn id="17" name="CM_CS_CUPS_CPE" xr3:uid="{BA78C14D-119F-4B66-919B-74820B8F2B83}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{3F4F387E-5A7C-470E-925D-259EE11B51E9}" name="Table27" displayName="Table27" ref="B5:C7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table27" id="27" mc:Ignorable="xr xr3" name="Table27" ref="B5:C7" totalsRowShown="0" xr:uid="{3F4F387E-5A7C-470E-925D-259EE11B51E9}">
   <autoFilter ref="B5:C7" xr:uid="{1F12E6E8-15B5-427A-85E5-0D96F1EDFC3F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{380E1970-91CF-4168-8873-E5F6C2609A3B}" name="bo_status_cd"/>
-    <tableColumn id="2" xr3:uid="{C0FC0A98-5939-4B39-9098-014F4C7B04E3}" name="contProcs"/>
+    <tableColumn id="1" name="bo_status_cd" xr3:uid="{380E1970-91CF-4168-8873-E5F6C2609A3B}"/>
+    <tableColumn id="2" name="contProcs" xr3:uid="{C0FC0A98-5939-4B39-9098-014F4C7B04E3}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{677E0B0C-1628-4CB5-A6F6-ED0FFC1FD442}" name="Table25" displayName="Table25" ref="A6:R7" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table25" id="25" insertRow="1" mc:Ignorable="xr xr3" name="Table25" ref="A6:R7" totalsRowShown="0" xr:uid="{677E0B0C-1628-4CB5-A6F6-ED0FFC1FD442}">
   <autoFilter ref="A6:R7" xr:uid="{5E9A5D50-111A-44CC-8D55-06706EE2AA77}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{D85ADC16-F5A6-4F71-B490-5F82835A24E5}" name="CSPROC_ID" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{E33F28B9-979C-4FA1-AB66-EEC406CEDC9A}" name="BUS_OBJ_CD"/>
-    <tableColumn id="3" xr3:uid="{209D79ED-249E-4904-BFAF-11E08AC256BA}" name=" BO_STATUS_CD, "/>
-    <tableColumn id="4" xr3:uid="{FD5002D9-F1D8-4166-B099-73DF7B70EA72}" name="BO_STATUS_DTTM"/>
-    <tableColumn id="5" xr3:uid="{DB93E60E-48DE-41D0-B46E-AA3C9022C6FB}" name="CS_MARK_PROC"/>
-    <tableColumn id="6" xr3:uid="{209E3BE6-F389-4436-93F1-28797BA6FFA9}" name="SVC_TYPE_CD"/>
-    <tableColumn id="7" xr3:uid="{E621399A-4984-417F-92A9-4AE795A60153}" name="COUNTRY"/>
-    <tableColumn id="8" xr3:uid="{A19EA6A1-0576-4E22-B911-1AD7D54612B2}" name="SP_ID"/>
-    <tableColumn id="9" xr3:uid="{E926B443-C2E3-4EF6-9551-EBED937CEC16}" name="ACCT_ID"/>
-    <tableColumn id="10" xr3:uid="{2D386F56-A2BE-4B24-AFA4-5A1970D45E29}" name="PREM_ID"/>
-    <tableColumn id="11" xr3:uid="{5D3B7E72-2A6F-4E9F-BE41-69B62077BC8B}" name="UA_ID"/>
-    <tableColumn id="12" xr3:uid="{189D9F33-B876-47BE-AC12-FB42EE1DE25B}" name="SA_ATR_ID"/>
-    <tableColumn id="13" xr3:uid="{E841244A-3796-4CE6-84AB-8F1124E3ABCF}" name="SA_ML_ID"/>
-    <tableColumn id="14" xr3:uid="{588EAD84-52A1-4356-A1B0-C7E9B844C462}" name="CSPROC_EF_DTTM"/>
-    <tableColumn id="15" xr3:uid="{997F6FE2-5DCA-4549-9FEC-C4312FB725A3}" name="VERSION, USER_ID"/>
-    <tableColumn id="16" xr3:uid="{CD9F00FC-0179-44B0-B640-6097F1A24ADD}" name="CSPROC_CORR_ID"/>
-    <tableColumn id="17" xr3:uid="{C8317254-AD78-410C-829C-1A6847C5294E}" name="CM_CS_CUPS_CPE"/>
-    <tableColumn id="18" xr3:uid="{7043B575-8460-49CA-8B3F-DDC9522B1171}" name="Column1"/>
+    <tableColumn dataDxfId="50" id="1" name="CSPROC_ID" xr3:uid="{D85ADC16-F5A6-4F71-B490-5F82835A24E5}"/>
+    <tableColumn id="2" name="BUS_OBJ_CD" xr3:uid="{E33F28B9-979C-4FA1-AB66-EEC406CEDC9A}"/>
+    <tableColumn id="3" name=" BO_STATUS_CD, " xr3:uid="{209D79ED-249E-4904-BFAF-11E08AC256BA}"/>
+    <tableColumn id="4" name="BO_STATUS_DTTM" xr3:uid="{FD5002D9-F1D8-4166-B099-73DF7B70EA72}"/>
+    <tableColumn id="5" name="CS_MARK_PROC" xr3:uid="{DB93E60E-48DE-41D0-B46E-AA3C9022C6FB}"/>
+    <tableColumn id="6" name="SVC_TYPE_CD" xr3:uid="{209E3BE6-F389-4436-93F1-28797BA6FFA9}"/>
+    <tableColumn id="7" name="COUNTRY" xr3:uid="{E621399A-4984-417F-92A9-4AE795A60153}"/>
+    <tableColumn id="8" name="SP_ID" xr3:uid="{A19EA6A1-0576-4E22-B911-1AD7D54612B2}"/>
+    <tableColumn id="9" name="ACCT_ID" xr3:uid="{E926B443-C2E3-4EF6-9551-EBED937CEC16}"/>
+    <tableColumn id="10" name="PREM_ID" xr3:uid="{2D386F56-A2BE-4B24-AFA4-5A1970D45E29}"/>
+    <tableColumn id="11" name="UA_ID" xr3:uid="{5D3B7E72-2A6F-4E9F-BE41-69B62077BC8B}"/>
+    <tableColumn id="12" name="SA_ATR_ID" xr3:uid="{189D9F33-B876-47BE-AC12-FB42EE1DE25B}"/>
+    <tableColumn id="13" name="SA_ML_ID" xr3:uid="{E841244A-3796-4CE6-84AB-8F1124E3ABCF}"/>
+    <tableColumn id="14" name="CSPROC_EF_DTTM" xr3:uid="{588EAD84-52A1-4356-A1B0-C7E9B844C462}"/>
+    <tableColumn id="15" name="VERSION, USER_ID" xr3:uid="{997F6FE2-5DCA-4549-9FEC-C4312FB725A3}"/>
+    <tableColumn id="16" name="CSPROC_CORR_ID" xr3:uid="{CD9F00FC-0179-44B0-B640-6097F1A24ADD}"/>
+    <tableColumn id="17" name="CM_CS_CUPS_CPE" xr3:uid="{C8317254-AD78-410C-829C-1A6847C5294E}"/>
+    <tableColumn id="18" name="Column1" xr3:uid="{7043B575-8460-49CA-8B3F-DDC9522B1171}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3B204C06-5C80-498F-BF22-E4D0330BE67E}" name="Table7" displayName="Table7" ref="C9:D10" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table7" id="7" insertRow="1" mc:Ignorable="xr xr3" name="Table7" ref="C9:D10" totalsRowShown="0" xr:uid="{3B204C06-5C80-498F-BF22-E4D0330BE67E}">
   <autoFilter ref="C9:D10" xr:uid="{3F55D1DF-87DA-4C1D-B0C4-DFAE802E287B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CF085F14-B10B-49F7-A48D-37D1B6C54731}" name="msg_in_err"/>
-    <tableColumn id="2" xr3:uid="{2ED27247-561A-40A4-8B52-A4C00FCFA94F}" name="TO_CHAR(error_dtl)"/>
+    <tableColumn id="1" name="msg_in_err" xr3:uid="{CF085F14-B10B-49F7-A48D-37D1B6C54731}"/>
+    <tableColumn id="2" name="TO_CHAR(error_dtl)" xr3:uid="{2ED27247-561A-40A4-8B52-A4C00FCFA94F}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{FBF5D4B6-5282-4CF4-BA1A-9445D1662516}" name="Table23" displayName="Table23" ref="D4:F5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table23" id="23" mc:Ignorable="xr xr3" name="Table23" ref="D4:F5" totalsRowShown="0" xr:uid="{FBF5D4B6-5282-4CF4-BA1A-9445D1662516}">
   <autoFilter ref="D4:F5" xr:uid="{97B80215-8513-4FA7-A2F0-2A38CFB1D520}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E00E9FB0-596B-4CF7-A287-9886E2F5F2B2}" name="CSPROC_ID" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{E3EF44A8-E3FA-48F3-9CE9-559D07DA4412}" name="BUS_OBJ_CD"/>
-    <tableColumn id="3" xr3:uid="{27EDDBD0-7AC9-4EB3-8494-2F43DE1977BE}" name="BO_STATUS_DTTM" dataDxfId="48"/>
+    <tableColumn dataDxfId="49" id="1" name="CSPROC_ID" xr3:uid="{E00E9FB0-596B-4CF7-A287-9886E2F5F2B2}"/>
+    <tableColumn id="2" name="BUS_OBJ_CD" xr3:uid="{E3EF44A8-E3FA-48F3-9CE9-559D07DA4412}"/>
+    <tableColumn dataDxfId="48" id="3" name="BO_STATUS_DTTM" xr3:uid="{27EDDBD0-7AC9-4EB3-8494-2F43DE1977BE}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{90D39175-B140-4A41-BC5A-0C89CF674AA4}" name="TblVal422" displayName="TblVal422" ref="A3:O13" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataDxfId="45" displayName="TblVal422" headerRowBorderDxfId="46" headerRowDxfId="47" id="21" mc:Ignorable="xr xr3" name="TblVal422" ref="A3:O13" totalsRowShown="0" xr:uid="{90D39175-B140-4A41-BC5A-0C89CF674AA4}">
   <autoFilter ref="A3:O13" xr:uid="{944F3D8A-ED4A-47E9-8908-688FD408FA14}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1684E246-7D65-4FF6-83A2-1E6E12358CBD}" name="SP_ID" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{9737D000-B73F-4837-893C-94C43B46E8C6}" name="GEO_VAL" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{EC637F17-DA6F-408F-B89F-C454E7F25114}" name="CSPROC_ID" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00482298-576E-406A-A9CA-70830D9CBE6E}" name="CS_MARK_PROC" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{74D05E00-5745-4CD1-AB26-B98DC63F9F44}" name="CHAR_VAL" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{E2225C00-892F-4F73-9763-8681990FF384}" name="Data da caracteristica" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{555AAAF6-3CC7-4405-9B7B-F43A78C3D9C7}" name="Data de remocao" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{436A7FF2-EDE4-45CA-877E-114B4C322021}" name="Data da leitura" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{26676E52-A141-4291-BF55-B9BCB358BDC3}" name="MTR_CONFIG_ID" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{679A76BC-C615-47D0-8196-D1C4A2494520}" name="MR_ID" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{B2CC44EC-B202-40FC-A184-59DE41A95E94}" name="Data activacao Swout" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{D8B0D191-B16E-4F56-BD50-5EA6386B0A75}" name="PODE USAR" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{326DE7B0-8924-4161-A32C-C34E6863F916}" name="leitura - CMATRSTA" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{F88040FD-17B6-4629-A206-71CE3EEF7DC8}" name="ESTADO DO SA_ML" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{B4DE923C-9005-425C-8336-DF46861FB03F}" name="Saldo do SA_ML" dataDxfId="30"/>
+    <tableColumn dataDxfId="44" id="1" name="SP_ID" xr3:uid="{1684E246-7D65-4FF6-83A2-1E6E12358CBD}"/>
+    <tableColumn dataDxfId="43" id="2" name="GEO_VAL" xr3:uid="{9737D000-B73F-4837-893C-94C43B46E8C6}"/>
+    <tableColumn dataDxfId="42" id="3" name="CSPROC_ID" xr3:uid="{EC637F17-DA6F-408F-B89F-C454E7F25114}"/>
+    <tableColumn dataDxfId="41" id="4" name="CS_MARK_PROC" xr3:uid="{00482298-576E-406A-A9CA-70830D9CBE6E}"/>
+    <tableColumn dataDxfId="40" id="5" name="CHAR_VAL" xr3:uid="{74D05E00-5745-4CD1-AB26-B98DC63F9F44}"/>
+    <tableColumn dataDxfId="39" id="6" name="Data da caracteristica" xr3:uid="{E2225C00-892F-4F73-9763-8681990FF384}"/>
+    <tableColumn dataDxfId="38" id="7" name="Data de remocao" xr3:uid="{555AAAF6-3CC7-4405-9B7B-F43A78C3D9C7}"/>
+    <tableColumn dataDxfId="37" id="8" name="Data da leitura" xr3:uid="{436A7FF2-EDE4-45CA-877E-114B4C322021}"/>
+    <tableColumn dataDxfId="36" id="9" name="MTR_CONFIG_ID" xr3:uid="{26676E52-A141-4291-BF55-B9BCB358BDC3}"/>
+    <tableColumn dataDxfId="35" id="10" name="MR_ID" xr3:uid="{679A76BC-C615-47D0-8196-D1C4A2494520}"/>
+    <tableColumn dataDxfId="34" id="11" name="Data activacao Swout" xr3:uid="{B2CC44EC-B202-40FC-A184-59DE41A95E94}"/>
+    <tableColumn dataDxfId="33" id="12" name="PODE USAR" xr3:uid="{D8B0D191-B16E-4F56-BD50-5EA6386B0A75}"/>
+    <tableColumn dataDxfId="32" id="13" name="leitura - CMATRSTA" xr3:uid="{326DE7B0-8924-4161-A32C-C34E6863F916}"/>
+    <tableColumn dataDxfId="31" id="14" name="ESTADO DO SA_ML" xr3:uid="{F88040FD-17B6-4629-A206-71CE3EEF7DC8}"/>
+    <tableColumn dataDxfId="30" id="15" name="Saldo do SA_ML" xr3:uid="{B4DE923C-9005-425C-8336-DF46861FB03F}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{C462906D-9590-43CE-8502-009BA9859DA1}" name="Table723" displayName="Table723" ref="R3:S21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table723" id="22" mc:Ignorable="xr xr3" name="Table723" ref="R3:S21" totalsRowShown="0" xr:uid="{C462906D-9590-43CE-8502-009BA9859DA1}">
   <autoFilter ref="R3:S21" xr:uid="{FC0AE835-9CA7-4FF0-8956-A421FE3B4EC4}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{CB902988-7F3F-4276-AFFF-1B57E4C2FDAD}" name="Casos Tratados - SP"/>
-    <tableColumn id="1" xr3:uid="{47597C46-F99E-4C54-9502-9D60E2BF78C3}" name="Observações"/>
+    <tableColumn id="2" name="Casos Tratados - SP" xr3:uid="{CB902988-7F3F-4276-AFFF-1B57E4C2FDAD}"/>
+    <tableColumn id="1" name="Observações" xr3:uid="{47597C46-F99E-4C54-9502-9D60E2BF78C3}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table10" displayName="Table10" ref="A1:T5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table10" id="10" mc:Ignorable="xr xr3" name="Table10" ref="A1:T5" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}">
   <autoFilter ref="A1:T5" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Timeline" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="05/jul" dataDxfId="151"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="06/jul" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="09/jul" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="10/jul" dataDxfId="148"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="11/jul"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="12/jul"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="13/jul"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="16/jul"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="17/jul"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="18/jul"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="19/jul"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="20/jul"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="23/jul"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="24/jul"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="25/jul"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="26/jul"/>
-    <tableColumn id="18" xr3:uid="{0BC8823E-6727-40C6-9527-1B65DD1B6037}" name="27/jul"/>
-    <tableColumn id="19" xr3:uid="{CD8B6365-6E29-46A7-B988-3630EBA0B18E}" name="30/jul"/>
-    <tableColumn id="20" xr3:uid="{FB758C18-C83F-471A-9812-D8846A392856}" name="31/jul"/>
+    <tableColumn dataDxfId="152" id="1" name="Timeline" xr3:uid="{00000000-0010-0000-0100-000001000000}"/>
+    <tableColumn dataDxfId="151" id="2" name="05/jul" xr3:uid="{00000000-0010-0000-0100-000002000000}"/>
+    <tableColumn dataDxfId="150" id="3" name="06/jul" xr3:uid="{00000000-0010-0000-0100-000003000000}"/>
+    <tableColumn dataDxfId="149" id="4" name="09/jul" xr3:uid="{00000000-0010-0000-0100-000004000000}"/>
+    <tableColumn dataDxfId="148" id="5" name="10/jul" xr3:uid="{00000000-0010-0000-0100-000005000000}"/>
+    <tableColumn id="6" name="11/jul" xr3:uid="{00000000-0010-0000-0100-000006000000}"/>
+    <tableColumn id="7" name="12/jul" xr3:uid="{00000000-0010-0000-0100-000007000000}"/>
+    <tableColumn id="8" name="13/jul" xr3:uid="{00000000-0010-0000-0100-000008000000}"/>
+    <tableColumn id="9" name="16/jul" xr3:uid="{00000000-0010-0000-0100-000009000000}"/>
+    <tableColumn id="10" name="17/jul" xr3:uid="{00000000-0010-0000-0100-00000A000000}"/>
+    <tableColumn id="11" name="18/jul" xr3:uid="{00000000-0010-0000-0100-00000B000000}"/>
+    <tableColumn id="12" name="19/jul" xr3:uid="{00000000-0010-0000-0100-00000C000000}"/>
+    <tableColumn id="13" name="20/jul" xr3:uid="{00000000-0010-0000-0100-00000D000000}"/>
+    <tableColumn id="14" name="23/jul" xr3:uid="{00000000-0010-0000-0100-00000E000000}"/>
+    <tableColumn id="15" name="24/jul" xr3:uid="{00000000-0010-0000-0100-00000F000000}"/>
+    <tableColumn id="16" name="25/jul" xr3:uid="{00000000-0010-0000-0100-000010000000}"/>
+    <tableColumn id="17" name="26/jul" xr3:uid="{00000000-0010-0000-0100-000011000000}"/>
+    <tableColumn id="18" name="27/jul" xr3:uid="{0BC8823E-6727-40C6-9527-1B65DD1B6037}"/>
+    <tableColumn id="19" name="30/jul" xr3:uid="{CD8B6365-6E29-46A7-B988-3630EBA0B18E}"/>
+    <tableColumn id="20" name="31/jul" xr3:uid="{FB758C18-C83F-471A-9812-D8846A392856}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{C4076911-0502-4206-A7D9-15BAFE1E795D}" name="Table1017" displayName="Table1017" ref="A7:W14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table1017" id="16" mc:Ignorable="xr xr3" name="Table1017" ref="A7:W14" totalsRowShown="0" xr:uid="{C4076911-0502-4206-A7D9-15BAFE1E795D}">
   <autoFilter ref="A7:W14" xr:uid="{23C7A01D-EA12-41B7-9FE2-F51D50CC6F21}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{254C45B3-1A0C-472F-A9DE-C09BEA4F2B2E}" name="Timeline" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{09BDE934-6F10-4E5F-BEDA-EED130324202}" name="01/ago" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{FFD399A1-B1BE-423E-BF80-0E34DB968698}" name="02/ago" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{7350934E-0030-49FB-8214-AC423589F0D4}" name="03/ago" dataDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{48D067D9-65DF-4686-9BCE-C4FBF3201B6E}" name="06/ago" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{BC9D857F-9CD5-44E3-9F76-CFBBB764FC82}" name="07/ago"/>
-    <tableColumn id="7" xr3:uid="{95AB2517-627B-40D8-89EA-4F02A04AF640}" name="08/ago"/>
-    <tableColumn id="8" xr3:uid="{F06EAE77-F655-4496-9022-86E1BE98A2B2}" name="09/ago"/>
-    <tableColumn id="9" xr3:uid="{F405E9C0-C2C0-46A6-90F3-7AB1C6C9F781}" name="10/ago"/>
-    <tableColumn id="10" xr3:uid="{1ADC0482-6287-4A27-B612-008913E81BDD}" name="13/ago"/>
-    <tableColumn id="11" xr3:uid="{B38FA238-C19F-4E91-B414-FCC59C7F03B1}" name="14/ago"/>
-    <tableColumn id="12" xr3:uid="{70ECFBCB-CE37-4D58-B8E2-EB7D7503BB43}" name="16/ago"/>
-    <tableColumn id="13" xr3:uid="{BEC321E8-AE1D-40C8-A6E8-635344B531ED}" name="17/ago"/>
-    <tableColumn id="14" xr3:uid="{7758E70F-379F-4F8F-B283-8A791E6E45A3}" name="20/ago"/>
-    <tableColumn id="15" xr3:uid="{D8504151-422F-4F7E-802E-E379737E5181}" name="21/ago"/>
-    <tableColumn id="16" xr3:uid="{1FC55BFC-8A81-446F-A543-C7535ED04872}" name="22/ago"/>
-    <tableColumn id="17" xr3:uid="{D8E26CDB-D8DA-47A8-A8D6-2FC79A0550B8}" name="23/ago"/>
-    <tableColumn id="18" xr3:uid="{62CE14EE-AEC2-4D7B-9816-906A3CCDA8A9}" name="24/ago"/>
-    <tableColumn id="19" xr3:uid="{F82911AC-3B67-4495-8FCA-7043ABF11377}" name="27/ago"/>
-    <tableColumn id="20" xr3:uid="{1855900F-CFAD-412A-8D84-10C9755ED3F7}" name="28/ago"/>
-    <tableColumn id="21" xr3:uid="{27C2B073-C9C4-42BC-95FB-8086A7383772}" name="29/ago"/>
-    <tableColumn id="22" xr3:uid="{DC4CC520-D17A-470A-962C-094AB88AB509}" name="30/ago"/>
-    <tableColumn id="23" xr3:uid="{AC464A57-71E7-4106-917F-6A66EBA43493}" name="31/ago"/>
+    <tableColumn dataDxfId="147" id="1" name="Timeline" xr3:uid="{254C45B3-1A0C-472F-A9DE-C09BEA4F2B2E}"/>
+    <tableColumn dataDxfId="146" id="2" name="01/ago" xr3:uid="{09BDE934-6F10-4E5F-BEDA-EED130324202}"/>
+    <tableColumn dataDxfId="145" id="3" name="02/ago" xr3:uid="{FFD399A1-B1BE-423E-BF80-0E34DB968698}"/>
+    <tableColumn dataDxfId="144" id="4" name="03/ago" xr3:uid="{7350934E-0030-49FB-8214-AC423589F0D4}"/>
+    <tableColumn dataDxfId="143" id="5" name="06/ago" xr3:uid="{48D067D9-65DF-4686-9BCE-C4FBF3201B6E}"/>
+    <tableColumn id="6" name="07/ago" xr3:uid="{BC9D857F-9CD5-44E3-9F76-CFBBB764FC82}"/>
+    <tableColumn id="7" name="08/ago" xr3:uid="{95AB2517-627B-40D8-89EA-4F02A04AF640}"/>
+    <tableColumn id="8" name="09/ago" xr3:uid="{F06EAE77-F655-4496-9022-86E1BE98A2B2}"/>
+    <tableColumn id="9" name="10/ago" xr3:uid="{F405E9C0-C2C0-46A6-90F3-7AB1C6C9F781}"/>
+    <tableColumn id="10" name="13/ago" xr3:uid="{1ADC0482-6287-4A27-B612-008913E81BDD}"/>
+    <tableColumn id="11" name="14/ago" xr3:uid="{B38FA238-C19F-4E91-B414-FCC59C7F03B1}"/>
+    <tableColumn id="12" name="16/ago" xr3:uid="{70ECFBCB-CE37-4D58-B8E2-EB7D7503BB43}"/>
+    <tableColumn id="13" name="17/ago" xr3:uid="{BEC321E8-AE1D-40C8-A6E8-635344B531ED}"/>
+    <tableColumn id="14" name="20/ago" xr3:uid="{7758E70F-379F-4F8F-B283-8A791E6E45A3}"/>
+    <tableColumn id="15" name="21/ago" xr3:uid="{D8504151-422F-4F7E-802E-E379737E5181}"/>
+    <tableColumn id="16" name="22/ago" xr3:uid="{1FC55BFC-8A81-446F-A543-C7535ED04872}"/>
+    <tableColumn id="17" name="23/ago" xr3:uid="{D8E26CDB-D8DA-47A8-A8D6-2FC79A0550B8}"/>
+    <tableColumn id="18" name="24/ago" xr3:uid="{62CE14EE-AEC2-4D7B-9816-906A3CCDA8A9}"/>
+    <tableColumn id="19" name="27/ago" xr3:uid="{F82911AC-3B67-4495-8FCA-7043ABF11377}"/>
+    <tableColumn id="20" name="28/ago" xr3:uid="{1855900F-CFAD-412A-8D84-10C9755ED3F7}"/>
+    <tableColumn id="21" name="29/ago" xr3:uid="{27C2B073-C9C4-42BC-95FB-8086A7383772}"/>
+    <tableColumn id="22" name="30/ago" xr3:uid="{DC4CC520-D17A-470A-962C-094AB88AB509}"/>
+    <tableColumn id="23" name="31/ago" xr3:uid="{AC464A57-71E7-4106-917F-6A66EBA43493}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B3900CB2-7C26-46CD-985F-C1CCFA71740C}" name="Table19" displayName="Table19" ref="A16:R24" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table19" id="19" mc:Ignorable="xr xr3" name="Table19" ref="A16:R24" totalsRowShown="0" xr:uid="{B3900CB2-7C26-46CD-985F-C1CCFA71740C}">
   <autoFilter ref="A16:R24" xr:uid="{DC161AC6-A961-4BFB-A9A3-B1340D3A2076}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{96375448-C28F-435A-B850-474448E5230C}" name="Timeline" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{A7C57471-D8AD-45A5-B6F0-D8F8052F8ACA}" name="03/set" dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{80225D7E-F715-4ED8-9426-6AE4DF89932D}" name="04/set"/>
-    <tableColumn id="4" xr3:uid="{0A515398-51E5-4B72-AE76-597F8FFE4E14}" name="10/set"/>
-    <tableColumn id="5" xr3:uid="{3D6FCCB3-870D-4FF4-B67D-0B4838A9677C}" name="11/set"/>
-    <tableColumn id="6" xr3:uid="{E6596F04-0FB7-4D72-8197-AEA8BD163804}" name="12/set"/>
-    <tableColumn id="7" xr3:uid="{8E4E23EE-C35E-4CA2-89FC-755091BF5763}" name="13/set"/>
-    <tableColumn id="8" xr3:uid="{DFB0B357-5AC8-4544-853F-280EF36C6AAB}" name="14/set"/>
-    <tableColumn id="9" xr3:uid="{0B636779-7C93-4C72-8F27-E8D247B4085A}" name="17/set"/>
-    <tableColumn id="10" xr3:uid="{7BD476C3-2231-430B-8FCA-E0F7920F16B8}" name="18/set"/>
-    <tableColumn id="11" xr3:uid="{49794411-3DC6-4082-8B3D-720764CD7F61}" name="19/set"/>
-    <tableColumn id="12" xr3:uid="{C665E76C-8157-4F68-B163-7D1D45E682B0}" name="20/set"/>
-    <tableColumn id="13" xr3:uid="{F1A3F729-1726-4A82-B5C2-0F9E48902A6C}" name="21/set"/>
-    <tableColumn id="14" xr3:uid="{028117DB-0F1B-460A-9908-EE3AEBF81C87}" name="24/set"/>
-    <tableColumn id="15" xr3:uid="{458C44F2-3388-4D01-903A-E16608CE366E}" name="25/set"/>
-    <tableColumn id="16" xr3:uid="{18A0C8EE-2F17-4BA5-BBB3-3B1AE298394E}" name="26/set"/>
-    <tableColumn id="17" xr3:uid="{5FD4844B-C8D1-45EA-B395-FC4A82D4FFE5}" name="27/set"/>
-    <tableColumn id="18" xr3:uid="{F4103870-DB35-4B14-B5B6-6A3CA8A01EA8}" name="28/set"/>
+    <tableColumn dataDxfId="142" id="1" name="Timeline" xr3:uid="{96375448-C28F-435A-B850-474448E5230C}"/>
+    <tableColumn dataDxfId="141" id="2" name="03/set" xr3:uid="{A7C57471-D8AD-45A5-B6F0-D8F8052F8ACA}"/>
+    <tableColumn id="3" name="04/set" xr3:uid="{80225D7E-F715-4ED8-9426-6AE4DF89932D}"/>
+    <tableColumn id="4" name="10/set" xr3:uid="{0A515398-51E5-4B72-AE76-597F8FFE4E14}"/>
+    <tableColumn id="5" name="11/set" xr3:uid="{3D6FCCB3-870D-4FF4-B67D-0B4838A9677C}"/>
+    <tableColumn id="6" name="12/set" xr3:uid="{E6596F04-0FB7-4D72-8197-AEA8BD163804}"/>
+    <tableColumn id="7" name="13/set" xr3:uid="{8E4E23EE-C35E-4CA2-89FC-755091BF5763}"/>
+    <tableColumn id="8" name="14/set" xr3:uid="{DFB0B357-5AC8-4544-853F-280EF36C6AAB}"/>
+    <tableColumn id="9" name="17/set" xr3:uid="{0B636779-7C93-4C72-8F27-E8D247B4085A}"/>
+    <tableColumn id="10" name="18/set" xr3:uid="{7BD476C3-2231-430B-8FCA-E0F7920F16B8}"/>
+    <tableColumn id="11" name="19/set" xr3:uid="{49794411-3DC6-4082-8B3D-720764CD7F61}"/>
+    <tableColumn id="12" name="20/set" xr3:uid="{C665E76C-8157-4F68-B163-7D1D45E682B0}"/>
+    <tableColumn id="13" name="21/set" xr3:uid="{F1A3F729-1726-4A82-B5C2-0F9E48902A6C}"/>
+    <tableColumn id="14" name="24/set" xr3:uid="{028117DB-0F1B-460A-9908-EE3AEBF81C87}"/>
+    <tableColumn id="15" name="25/set" xr3:uid="{458C44F2-3388-4D01-903A-E16608CE366E}"/>
+    <tableColumn id="16" name="26/set" xr3:uid="{18A0C8EE-2F17-4BA5-BBB3-3B1AE298394E}"/>
+    <tableColumn id="17" name="27/set" xr3:uid="{5FD4844B-C8D1-45EA-B395-FC4A82D4FFE5}"/>
+    <tableColumn id="18" name="28/set" xr3:uid="{F4103870-DB35-4B14-B5B6-6A3CA8A01EA8}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TblOkNok" displayName="TblOkNok" ref="A2:C4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="TblOkNok" id="8" mc:Ignorable="xr xr3" name="TblOkNok" ref="A2:C4" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}">
   <autoFilter ref="A2:C4" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Simbolo"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="OK/NOK"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Valor"/>
+    <tableColumn id="3" name="Simbolo" xr3:uid="{00000000-0010-0000-0200-000003000000}"/>
+    <tableColumn id="1" name="OK/NOK" xr3:uid="{00000000-0010-0000-0200-000001000000}"/>
+    <tableColumn id="2" name="Valor" xr3:uid="{00000000-0010-0000-0200-000002000000}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="ThresNoVal" displayName="ThresNoVal" ref="E2:F19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="ThresNoVal" id="4" mc:Ignorable="xr xr3" name="ThresNoVal" ref="E2:F19" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}">
   <autoFilter ref="E2:F19" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="BO"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Threshold"/>
+    <tableColumn id="1" name="BO" xr3:uid="{00000000-0010-0000-0300-000001000000}"/>
+    <tableColumn id="2" name="Threshold" xr3:uid="{00000000-0010-0000-0300-000002000000}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="ThresPorProc" displayName="ThresPorProc" ref="I2:J14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="ThresPorProc" id="9" mc:Ignorable="xr xr3" name="ThresPorProc" ref="I2:J14" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}">
   <autoFilter ref="I2:J14" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="BO"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Threshold"/>
+    <tableColumn id="1" name="BO" xr3:uid="{00000000-0010-0000-0400-000001000000}"/>
+    <tableColumn id="2" name="Threshold" xr3:uid="{00000000-0010-0000-0400-000002000000}"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="TblVal1" displayName="TblVal1" ref="A3:G18" totalsRowShown="0" headerRowDxfId="140" headerRowBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="TblVal1" headerRowBorderDxfId="139" headerRowDxfId="140" id="2" mc:Ignorable="xr xr3" name="TblVal1" ref="A3:G18" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}">
   <autoFilter ref="A3:G18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Msgs" dataDxfId="138"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="País" dataDxfId="137"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Processo" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="BO" dataDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Descrição BO" dataDxfId="134"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="102" dataDxfId="133">
+    <tableColumn dataDxfId="138" id="1" name="Msgs" xr3:uid="{00000000-0010-0000-0500-000001000000}"/>
+    <tableColumn dataDxfId="137" id="7" name="País" xr3:uid="{00000000-0010-0000-0500-000007000000}"/>
+    <tableColumn dataDxfId="136" id="6" name="Processo" xr3:uid="{00000000-0010-0000-0500-000006000000}"/>
+    <tableColumn dataDxfId="135" id="2" name="BO" xr3:uid="{00000000-0010-0000-0500-000002000000}"/>
+    <tableColumn dataDxfId="134" id="4" name="Descrição BO" xr3:uid="{00000000-0010-0000-0500-000004000000}"/>
+    <tableColumn dataDxfId="133" id="5" name="102" xr3:uid="{00000000-0010-0000-0500-000005000000}">
       <calculatedColumnFormula>IF(TblVal1[[#This Row],[2001-01-13 00:00:00.0]]="NOK",IF(ISERROR(VLOOKUP(TblVal1[[#This Row],[BO]],ThresNoVal[],2,FALSE)),IF(TblVal1[[#This Row],[Msgs]]&gt;VLOOKUP("Default",ThresNoVal[],2,FALSE), (VLOOKUP("Default",ThresNoVal[],2,FALSE)/TblVal1[[#This Row],[Msgs]]), 0),(VLOOKUP(TblVal1[[#This Row],[BO]],ThresNoVal[],2,FALSE)/TblVal1[[#This Row],[Msgs]])),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="2001-01-13 00:00:00.0" dataDxfId="132">
+    <tableColumn dataDxfId="132" id="3" name="2001-01-13 00:00:00.0" xr3:uid="{00000000-0010-0000-0500-000003000000}">
       <calculatedColumnFormula>IF(ISERROR(VLOOKUP(TblVal1[[#This Row],[BO]],ThresNoVal[],2,FALSE)),IF(TblVal1[[#This Row],[Msgs]]&gt;VLOOKUP("Default",ThresNoVal[],2,FALSE), "NOK", "OK"),IF(TblVal1[[#This Row],[Msgs]]&gt;VLOOKUP(TblVal1[[#This Row],[BO]],ThresNoVal[],2,FALSE), "NOK", "OK"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -5155,10 +5164,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5193,7 +5202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5245,7 +5254,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5356,21 +5365,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5387,7 +5396,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -5439,50 +5448,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:U102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:V102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.42578125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="65.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="89.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="65.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="15" max="16" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="116">
-        <v>43531.914462615743</v>
+      <c r="B3" s="116" t="n">
+        <v>43567.34223517361</v>
       </c>
       <c r="C3" s="64"/>
       <c r="G3" s="63"/>
@@ -5493,26 +5502,26 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
     </row>
-    <row r="5" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="132" t="s">
+    <row ht="17.25" r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132"/>
       <c r="R5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="20.100000000000001" r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
         <v>21</v>
       </c>
@@ -5575,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="str">
-        <f>IFERROR("1º "&amp;INDEX(TblVal2[],MATCH("NOK",TblVal2[Controlo],0),2) &amp;" com " &amp; INDEX(TblVal2[],MATCH("NOK",TblVal2[Controlo],0),1) &amp; " mensagens","1º Com resultados normais") &amp;" " &amp;IFERROR("| 2º "&amp;INDEX(TblVal215[],MATCH("NOK",TblVal215[Controlo],0),2) &amp;" com " &amp; INDEX(TblVal215[],MATCH("NOK",TblVal215[Controlo],0),1) &amp; " mensagens","| 2º Com resultados normais")</f>
+        <f><![CDATA[IFERROR("1º "&INDEX(TblVal2[],MATCH("NOK",TblVal2[Controlo],0),2) &" com " & INDEX(TblVal2[],MATCH("NOK",TblVal2[Controlo],0),1) & " mensagens","1º Com resultados normais") &" " &IFERROR("| 2º "&INDEX(TblVal215[],MATCH("NOK",TblVal215[Controlo],0),2) &" com " & INDEX(TblVal215[],MATCH("NOK",TblVal215[Controlo],0),1) & " mensagens","| 2º Com resultados normais")]]></f>
         <v>1º Com resultados normais | 2º Com resultados normais</v>
       </c>
       <c r="H8" s="6"/>
@@ -7775,14 +7784,14 @@
     <mergeCell ref="H5:Q5"/>
     <mergeCell ref="A5:C5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:AlternateContent>
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="4097" r:id="rId4">
+        <oleObject dvAspect="DVASPECT_ICON" progId="Packager Shell Object" r:id="rId4" shapeId="4097">
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -7802,7 +7811,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="4097" r:id="rId4"/>
+        <oleObject dvAspect="DVASPECT_ICON" progId="Packager Shell Object" r:id="rId4" shapeId="4097"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -7810,11 +7819,11 @@
     <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{A0D0E5B1-2A2A-4428-9EB6-B9DE5EEB5D84}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+          <x14:cfRule id="{A0D0E5B1-2A2A-4428-9EB6-B9DE5EEB5D84}" priority="14" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -7824,16 +7833,16 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>B7:B17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{B7E3956C-8541-4CF6-B854-7E1F65520468}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+          <x14:cfRule id="{B7E3956C-8541-4CF6-B854-7E1F65520468}" priority="1" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -7843,9 +7852,9 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>B18</xm:sqref>
@@ -7857,8 +7866,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1F4A4E-136C-4280-96D7-2BBE8AAB2770}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1F4A4E-136C-4280-96D7-2BBE8AAB2770}">
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -7866,34 +7875,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+    <row ht="17.25" r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="9"/>
       <c r="L1" s="30" t="s">
         <v>25</v>
@@ -7903,7 +7912,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row ht="17.25" r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -7960,8 +7969,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -7969,8 +7978,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDFF8F6-A289-4FA4-AC8F-34CC8C1DA5B0}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDFF8F6-A289-4FA4-AC8F-34CC8C1DA5B0}">
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
@@ -7978,34 +7987,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+    <row ht="17.25" r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="9"/>
       <c r="L1" s="30" t="s">
         <v>25</v>
@@ -8015,7 +8024,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row ht="17.25" r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -8088,8 +8097,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -8097,8 +8106,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03384F3B-19D0-4D3F-A99B-7ABE34156A49}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03384F3B-19D0-4D3F-A99B-7ABE34156A49}">
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -8106,36 +8115,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+    <row customHeight="1" ht="17.100000000000001" r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
       <c r="K1" s="88"/>
       <c r="L1" s="30" t="s">
         <v>25</v>
@@ -8207,8 +8216,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -8216,8 +8225,8 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51214F0-6FB9-4C62-AAC9-C5EB65E398D0}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51214F0-6FB9-4C62-AAC9-C5EB65E398D0}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -8225,11 +8234,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row ht="17.25" r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>190</v>
       </c>
@@ -8255,8 +8264,8 @@
       <c r="B10" s="106"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -8264,8 +8273,8 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C1DA8A-27F2-437F-AA62-F5D2466189B9}">
-  <dimension ref="A1:X31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C1DA8A-27F2-437F-AA62-F5D2466189B9}">
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
@@ -8273,29 +8282,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+    <row ht="17.25" r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>189</v>
       </c>
@@ -8491,8 +8500,8 @@
       <c r="N31" s="63"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -8500,8 +8509,8 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9153F547-4AE4-442A-B37E-00EFBB2B3AC0}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9153F547-4AE4-442A-B37E-00EFBB2B3AC0}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -8509,12 +8518,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row ht="17.25" r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>198</v>
       </c>
@@ -8537,8 +8546,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -8546,8 +8555,8 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B50F60-2B22-4D46-8B4D-734CF68D9AC4}">
-  <dimension ref="C1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B50F60-2B22-4D46-8B4D-734CF68D9AC4}">
+  <dimension ref="C1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
@@ -8555,12 +8564,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row ht="17.25" r="1" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C1" s="27" t="s">
         <v>206</v>
       </c>
@@ -8710,8 +8719,8 @@
       <c r="F35" s="63"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -8719,8 +8728,8 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:S120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20:J21"/>
@@ -8728,35 +8737,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+    <row ht="17.25" r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="1"/>
       <c r="L1" s="30"/>
       <c r="M1" s="29"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+    <row ht="17.25" r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="58"/>
@@ -8772,7 +8781,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -10983,8 +10992,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -10993,8 +11002,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086D477-F462-4002-A5B1-FD4DE71BC7A2}">
-  <dimension ref="B1:G206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086D477-F462-4002-A5B1-FD4DE71BC7A2}">
+  <dimension ref="B1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -11002,12 +11011,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.85546875" style="61" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="79.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="61" width="20.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="79.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
@@ -11035,7 +11044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>132</v>
       </c>
@@ -11055,7 +11064,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>133</v>
       </c>
@@ -11080,7 +11089,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="113" t="s">
         <v>202</v>
       </c>
@@ -12657,8 +12666,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -12666,24 +12675,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R67" sqref="R67"/>
+    <sheetView tabSelected="1" topLeftCell="G56" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="Q61" sqref="Q61:Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="60.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -12934,7 +12943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="str">
         <f>'VAL4'!A1</f>
         <v>VAL4: Configurações SWOUT Mal Fechadas</v>
@@ -12997,7 +13006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -13556,8 +13565,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:23" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row ht="15.75" r="16" spans="1:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
         <v>41</v>
       </c>
@@ -13955,7 +13964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="str">
         <f>'VAL7'!A1:J1</f>
         <v>VAL7: SAs sem mapas horários atribuidos</v>
@@ -14037,8 +14046,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:23" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row ht="15.75" r="26" spans="1:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="81" t="s">
         <v>41</v>
       </c>
@@ -14611,7 +14620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="93" t="str">
         <f>'VAL8'!A1:J1</f>
         <v>VAL8: Processos em estado STOPSW/DATESERROR sem char CMATRSTA no SP e com erros no processo</v>
@@ -14683,7 +14692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row ht="15.75" r="35" spans="1:23" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>41</v>
@@ -15387,7 +15396,7 @@
       </c>
       <c r="W46" s="94"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row ht="15.75" r="47" spans="1:23" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="109" t="s">
         <v>41</v>
@@ -16072,7 +16081,7 @@
       <c r="V59" s="79"/>
       <c r="W59" s="79"/>
     </row>
-    <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row ht="15.75" r="60" spans="1:23" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="109" t="s">
         <v>41</v>
@@ -16122,8 +16131,17 @@
       <c r="P61" s="111">
         <v>43489</v>
       </c>
-      <c r="Q61" s="111">
-        <v>43490</v>
+      <c r="Q61" s="143" t="n">
+        <v>43569.785187581016</v>
+      </c>
+      <c r="R61" s="144" t="n">
+        <v>43569.79918678241</v>
+      </c>
+      <c r="S61" s="145" t="n">
+        <v>43569.81018166667</v>
+      </c>
+      <c r="T61" t="n" s="146">
+        <v>43570.34223517361</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -16175,8 +16193,17 @@
       <c r="P62" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="Q62" s="79" t="s">
-        <v>24</v>
+      <c r="Q62" t="s">
+        <v>23</v>
+      </c>
+      <c r="R62" t="s">
+        <v>23</v>
+      </c>
+      <c r="S62" t="s">
+        <v>23</v>
+      </c>
+      <c r="T62" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -16228,7 +16255,16 @@
       <c r="P63" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q63" s="10" t="s">
+      <c r="Q63" t="s">
+        <v>23</v>
+      </c>
+      <c r="R63" t="s">
+        <v>23</v>
+      </c>
+      <c r="S63" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16281,11 +16317,20 @@
       <c r="P64" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="Q64" s="79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>24</v>
+      </c>
+      <c r="R64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S64" t="s">
+        <v>24</v>
+      </c>
+      <c r="T64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>5</v>
       </c>
@@ -16334,11 +16379,20 @@
       <c r="P65" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q65" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q65" t="s">
+        <v>24</v>
+      </c>
+      <c r="R65" t="s">
+        <v>24</v>
+      </c>
+      <c r="S65" t="s">
+        <v>24</v>
+      </c>
+      <c r="T65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="91" t="s">
         <v>92</v>
       </c>
@@ -16387,11 +16441,20 @@
       <c r="P66" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="Q66" s="79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q66" t="s">
+        <v>24</v>
+      </c>
+      <c r="R66" t="s">
+        <v>24</v>
+      </c>
+      <c r="S66" t="s">
+        <v>24</v>
+      </c>
+      <c r="T66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>99</v>
       </c>
@@ -16440,11 +16503,8 @@
       <c r="P67" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q67" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="91" t="s">
         <v>98</v>
       </c>
@@ -16493,11 +16553,8 @@
       <c r="P68" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="Q68" s="79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="91" t="s">
         <v>138</v>
       </c>
@@ -16546,11 +16603,8 @@
       <c r="P69" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="Q69" s="79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>190</v>
       </c>
@@ -16599,11 +16653,8 @@
       <c r="P70" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q70" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="110" t="s">
         <v>189</v>
       </c>
@@ -16652,11 +16703,8 @@
       <c r="P71" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="Q71" s="79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="110" t="s">
         <v>198</v>
       </c>
@@ -16705,11 +16753,8 @@
       <c r="P72" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="Q72" s="79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="110" t="str">
         <f>'VAL12'!C1</f>
         <v>VAL12: Processos no estado CHECKRS</v>
@@ -16759,13 +16804,17 @@
       <c r="P73" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="Q73" s="79" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>281</v>
+      </c>
+      <c r="B79" s="131"/>
+      <c r="E79" s="131"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -16775,8 +16824,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{6167FD81-3919-49F3-91F9-D40E10A309C2}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+          <x14:cfRule id="{6167FD81-3919-49F3-91F9-D40E10A309C2}" priority="15" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -16786,16 +16835,16 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>B2:B5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{14CD22E3-23BA-4BE8-BA01-53CCFB9BEFAF}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+          <x14:cfRule id="{14CD22E3-23BA-4BE8-BA01-53CCFB9BEFAF}" priority="14" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -16805,16 +16854,16 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>B8:B14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{97A9FD4C-422A-4D7D-BBE7-0AE9193348E1}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+          <x14:cfRule id="{97A9FD4C-422A-4D7D-BBE7-0AE9193348E1}" priority="13" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -16824,16 +16873,16 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>B17:B24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{B432A4AB-7BD8-4804-AA65-7111C722BA88}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+          <x14:cfRule id="{B432A4AB-7BD8-4804-AA65-7111C722BA88}" priority="12" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -16843,16 +16892,16 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>B24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{20D26C8E-A593-449E-B330-D643820780DE}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+          <x14:cfRule id="{20D26C8E-A593-449E-B330-D643820780DE}" priority="11" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -16862,16 +16911,16 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>B27:R34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{4742F4A7-CBF5-4D19-B6E4-00A5E510FB2B}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+          <x14:cfRule id="{4742F4A7-CBF5-4D19-B6E4-00A5E510FB2B}" priority="10" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -16881,16 +16930,16 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>B34:R34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{5A08DCF4-06BA-4D3C-B6C4-F66535C1894E}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+          <x14:cfRule id="{5A08DCF4-06BA-4D3C-B6C4-F66535C1894E}" priority="9" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -16900,16 +16949,16 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>S27:W34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{65E8AA1C-B374-4762-8825-43FEA63ED523}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+          <x14:cfRule id="{65E8AA1C-B374-4762-8825-43FEA63ED523}" priority="8" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -16919,9 +16968,9 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>S34:W34</xm:sqref>
@@ -16933,8 +16982,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
@@ -16942,15 +16991,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>35</v>
       </c>
@@ -17187,77 +17236,77 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule dxfId="29" priority="17" type="expression">
       <formula>$E3="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule dxfId="28" priority="16" type="expression">
       <formula>$E6="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="27" priority="14">
+    <cfRule dxfId="27" priority="14" type="expression">
       <formula>$D3="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="26" priority="13">
+    <cfRule dxfId="26" priority="13" type="expression">
       <formula>$D9="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="25" priority="10">
+    <cfRule dxfId="25" priority="10" type="expression">
       <formula>$J10="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule dxfId="24" priority="9" type="expression">
       <formula>$D6="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule dxfId="23" priority="8" type="expression">
       <formula>$G7="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule dxfId="22" priority="7" type="expression">
       <formula>$D7="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule dxfId="21" priority="6" type="expression">
       <formula>$G8="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule dxfId="20" priority="5" type="expression">
       <formula>$J11="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule dxfId="19" priority="4" type="expression">
       <formula>$G9="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule dxfId="18" priority="3" type="expression">
       <formula>$J8="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule dxfId="17" priority="2" type="expression">
       <formula>$G10="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule dxfId="16" priority="1" type="expression">
       <formula>$G14="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -17267,8 +17316,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{2CCADED1-888C-45D6-BB6C-189207BADE47}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+          <x14:cfRule id="{2CCADED1-888C-45D6-BB6C-189207BADE47}" priority="24" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols2" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -17278,9 +17327,9 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols2"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols2"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>A3:A4</xm:sqref>
@@ -17292,32 +17341,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A4" sqref="A4:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.5703125" style="106" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="106" width="31.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+    <row ht="17.25" r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="138"/>
       <c r="E1" s="30" t="s">
         <v>25</v>
       </c>
@@ -17326,14 +17375,14 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="18" r="2" spans="1:20" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="42"/>
       <c r="E2" s="36"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -17965,32 +18014,32 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="A54:D120 A46:D46">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule dxfId="15" priority="6" type="expression">
       <formula>$D46="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:G45">
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule dxfId="14" priority="21" type="expression">
       <formula>$G4="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:M6 K7:M9">
-    <cfRule type="expression" dxfId="13" priority="23">
+    <cfRule dxfId="13" priority="23" type="expression">
       <formula>$M3="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J9">
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule dxfId="12" priority="25" type="expression">
       <formula>$N7="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule dxfId="11" priority="2" type="expression">
       <formula>$G10="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -17999,8 +18048,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="66" id="{D8A0A18C-AB51-49B6-97B5-0C4481328A82}">
-            <x14:iconSet iconSet="3Symbols2" custom="1">
+          <x14:cfRule id="{D8A0A18C-AB51-49B6-97B5-0C4481328A82}" priority="66" type="iconSet">
+            <x14:iconSet custom="1" iconSet="3Symbols2">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -18010,9 +18059,9 @@
               <x14:cfvo type="num">
                 <xm:f>2</xm:f>
               </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols2"/>
+              <x14:cfIcon iconId="0" iconSet="3Symbols2"/>
+              <x14:cfIcon iconId="2" iconSet="3Symbols2"/>
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>G4:G45</xm:sqref>
@@ -18024,28 +18073,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:W27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="17.45" r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
@@ -18059,8 +18108,8 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="17.45" r="2" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="17.45" r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>212</v>
       </c>
@@ -18082,7 +18131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>205</v>
       </c>
@@ -18670,62 +18719,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:C12 A20:C35">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule dxfId="10" priority="11" type="expression">
       <formula>$C12="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D11">
-    <cfRule type="expression" dxfId="9" priority="24">
+    <cfRule dxfId="9" priority="24" type="expression">
       <formula>$D5="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:O6 M10:O10 N7:O9">
-    <cfRule type="expression" dxfId="8" priority="33">
+    <cfRule dxfId="8" priority="33" type="expression">
       <formula>$O4="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M9">
-    <cfRule type="expression" dxfId="7" priority="37">
+    <cfRule dxfId="7" priority="37" type="expression">
       <formula>$P7="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:J13 I5:J10">
-    <cfRule type="expression" dxfId="6" priority="40">
+    <cfRule dxfId="6" priority="40" type="expression">
       <formula>$J5="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:N14 N15:N20">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule dxfId="5" priority="5" type="expression">
       <formula>$O12="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:M17">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule dxfId="4" priority="6" type="expression">
       <formula>$P15="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule dxfId="3" priority="4" type="expression">
       <formula>$J18="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule dxfId="2" priority="3" type="expression">
       <formula>$J19="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule dxfId="1" priority="2" type="expression">
       <formula>$J20="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:H10">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>$J5="NOK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -18735,8 +18784,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -18744,19 +18793,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="66.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="66.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="138" t="s">
+    <row ht="18" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
       <c r="E1" s="30" t="s">
         <v>25</v>
       </c>
@@ -18765,14 +18814,14 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row ht="18" r="2" spans="1:6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -18786,7 +18835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="44.45" r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="6"/>
@@ -18800,7 +18849,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="29.45" r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="6" t="s">
@@ -18857,7 +18906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="64.5" r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>8393679908</v>
       </c>
@@ -18865,7 +18914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="52.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="52.35" r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>3723131755</v>
       </c>
@@ -18873,7 +18922,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="56.1" r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>3277336373</v>
       </c>
@@ -18885,15 +18934,15 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:AlternateContent>
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+        <oleObject dvAspect="DVASPECT_ICON" progId="Packager Shell Object" r:id="rId4" shapeId="2049">
+          <objectPr autoPict="0" defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18912,13 +18961,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4"/>
+        <oleObject dvAspect="DVASPECT_ICON" progId="Packager Shell Object" r:id="rId4" shapeId="2049"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:AlternateContent>
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+        <oleObject dvAspect="DVASPECT_ICON" progId="Packager Shell Object" r:id="rId6" shapeId="2050">
+          <objectPr autoPict="0" defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18937,12 +18986,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId6"/>
+        <oleObject dvAspect="DVASPECT_ICON" progId="Packager Shell Object" r:id="rId6" shapeId="2050"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:AlternateContent>
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="2051" r:id="rId8">
+        <oleObject progId="Packager Shell Object" r:id="rId8" shapeId="2051">
           <objectPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -18962,7 +19011,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="2051" r:id="rId8"/>
+        <oleObject progId="Packager Shell Object" r:id="rId8" shapeId="2051"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -18974,44 +19023,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884EB843-C6C0-4A6C-9A99-26A0ECEE886A}">
-  <dimension ref="A1:Q135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884EB843-C6C0-4A6C-9A99-26A0ECEE886A}">
+  <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13" style="84" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="84" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="84" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="84" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+    <row ht="17.25" r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
       <c r="J1" s="1"/>
       <c r="K1" s="30" t="s">
         <v>25</v>
@@ -19022,7 +19071,7 @@
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+    <row ht="17.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -19037,7 +19086,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="16.5" r="3" spans="1:17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>165</v>
       </c>
@@ -21043,8 +21092,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -21052,8 +21101,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8957AFE0-F823-418D-AE8F-CCFFCF24BDAF}">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8957AFE0-F823-418D-AE8F-CCFFCF24BDAF}">
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:O109"/>
@@ -21061,34 +21110,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+    <row ht="17.25" r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="137"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="9"/>
       <c r="L1" s="30" t="s">
         <v>25</v>
@@ -21098,7 +21147,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row ht="17.25" r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -21447,8 +21496,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Monitorizações/Template.xlsx
+++ b/Monitorizações/Template.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EsteLivro" defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\JavaWorkplace\ValToExcel\Monitorizações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4927CAF9-B447-4529-958B-BB0DB252A1DA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3042AB80-0BB4-402E-889F-BD0D15BA654D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
     <workbookView activeTab="2" tabRatio="828" windowHeight="11310" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="282">
   <si>
     <t>BO</t>
   </si>
@@ -1564,7 +1564,7 @@
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="0" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="170">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0">
@@ -1930,6 +1930,29 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
@@ -4507,6 +4530,66 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3467100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4143375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!SelectedRangeToImage" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Fluxograma: Decisão 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="133350"/>
+          <a:ext cx="676275" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5456,11 +5539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Folha1"/>
   <dimension ref="A3:V102"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5491,7 +5573,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="116" t="n">
-        <v>43567.34223517361</v>
+        <v>43593.98488788195</v>
       </c>
       <c r="C3" s="64"/>
       <c r="G3" s="63"/>
@@ -7867,6 +7949,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1F4A4E-136C-4280-96D7-2BBE8AAB2770}">
+  <sheetPr codeName="Folha10"/>
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7979,6 +8062,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDFF8F6-A289-4FA4-AC8F-34CC8C1DA5B0}">
+  <sheetPr codeName="Folha11"/>
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -8107,6 +8191,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03384F3B-19D0-4D3F-A99B-7ABE34156A49}">
+  <sheetPr codeName="Folha12"/>
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8226,6 +8311,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51214F0-6FB9-4C62-AAC9-C5EB65E398D0}">
+  <sheetPr codeName="Folha13"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8274,6 +8360,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C1DA8A-27F2-437F-AA62-F5D2466189B9}">
+  <sheetPr codeName="Folha14"/>
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8510,6 +8597,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9153F547-4AE4-442A-B37E-00EFBB2B3AC0}">
+  <sheetPr codeName="Folha15"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8556,6 +8644,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B50F60-2B22-4D46-8B4D-734CF68D9AC4}">
+  <sheetPr codeName="Folha16"/>
   <dimension ref="C1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -8729,6 +8818,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Folha17"/>
   <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11003,6 +11093,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086D477-F462-4002-A5B1-FD4DE71BC7A2}">
+  <sheetPr codeName="Folha2"/>
   <dimension ref="B1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12676,10 +12767,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X79"/>
+  <sheetPr codeName="Folha3"/>
+  <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G56" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="Q61" sqref="Q61:Q67"/>
+      <selection activeCell="Q61" sqref="Q61:V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16132,16 +16224,85 @@
         <v>43489</v>
       </c>
       <c r="Q61" s="143" t="n">
-        <v>43569.785187581016</v>
+        <v>43572.90593690972</v>
       </c>
       <c r="R61" s="144" t="n">
-        <v>43569.79918678241</v>
+        <v>43572.91356693287</v>
       </c>
       <c r="S61" s="145" t="n">
-        <v>43569.81018166667</v>
-      </c>
-      <c r="T61" t="n" s="146">
-        <v>43570.34223517361</v>
+        <v>43572.91561966435</v>
+      </c>
+      <c r="T61" s="146" t="n">
+        <v>43572.91750055556</v>
+      </c>
+      <c r="U61" s="147" t="n">
+        <v>43572.921975046294</v>
+      </c>
+      <c r="V61" s="148" t="n">
+        <v>43587.93671002315</v>
+      </c>
+      <c r="W61" s="149" t="n">
+        <v>43587.93822979167</v>
+      </c>
+      <c r="X61" s="150" t="n">
+        <v>43587.93881664352</v>
+      </c>
+      <c r="Y61" s="151" t="n">
+        <v>43587.94065719908</v>
+      </c>
+      <c r="Z61" s="152" t="n">
+        <v>43587.94100805555</v>
+      </c>
+      <c r="AA61" s="153" t="n">
+        <v>43587.941578969905</v>
+      </c>
+      <c r="AB61" s="154" t="n">
+        <v>43587.94217392361</v>
+      </c>
+      <c r="AC61" s="155" t="n">
+        <v>43587.94265953704</v>
+      </c>
+      <c r="AD61" s="156" t="n">
+        <v>43588.336048020836</v>
+      </c>
+      <c r="AE61" s="157" t="n">
+        <v>43592.96399275463</v>
+      </c>
+      <c r="AF61" s="158" t="n">
+        <v>43593.966498043985</v>
+      </c>
+      <c r="AG61" s="159" t="n">
+        <v>43594.898596956016</v>
+      </c>
+      <c r="AH61" s="160" t="n">
+        <v>43594.899477534724</v>
+      </c>
+      <c r="AI61" s="161" t="n">
+        <v>43594.90398601852</v>
+      </c>
+      <c r="AJ61" s="162" t="n">
+        <v>43594.90409040509</v>
+      </c>
+      <c r="AK61" s="163" t="n">
+        <v>43594.90446978009</v>
+      </c>
+      <c r="AL61" s="164" t="n">
+        <v>43594.90593511574</v>
+      </c>
+      <c r="AM61" s="165" t="n">
+        <v>43594.90610408565</v>
+      </c>
+      <c r="AN61" s="166" t="n">
+        <v>43594.97311274306</v>
+      </c>
+      <c r="AO61" s="167" t="n">
+        <v>43594.97499109954</v>
+      </c>
+      <c r="AP61" s="168" t="n">
+        <v>43594.98264891204</v>
+      </c>
+      <c r="AQ61" t="n" s="169">
+        <v>43594.98488788195</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -16205,6 +16366,75 @@
       <c r="T62" t="s">
         <v>23</v>
       </c>
+      <c r="U62" t="s">
+        <v>23</v>
+      </c>
+      <c r="V62" t="s">
+        <v>23</v>
+      </c>
+      <c r="W62" t="s">
+        <v>23</v>
+      </c>
+      <c r="X62" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
@@ -16267,6 +16497,75 @@
       <c r="T63" t="s">
         <v>23</v>
       </c>
+      <c r="U63" t="s">
+        <v>23</v>
+      </c>
+      <c r="V63" t="s">
+        <v>23</v>
+      </c>
+      <c r="W63" t="s">
+        <v>23</v>
+      </c>
+      <c r="X63" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="91" t="s">
@@ -16329,6 +16628,75 @@
       <c r="T64" t="s">
         <v>24</v>
       </c>
+      <c r="U64" t="s">
+        <v>24</v>
+      </c>
+      <c r="V64" t="s">
+        <v>24</v>
+      </c>
+      <c r="W64" t="s">
+        <v>24</v>
+      </c>
+      <c r="X64" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
@@ -16391,6 +16759,75 @@
       <c r="T65" t="s">
         <v>24</v>
       </c>
+      <c r="U65" t="s">
+        <v>24</v>
+      </c>
+      <c r="V65" t="s">
+        <v>24</v>
+      </c>
+      <c r="W65" t="s">
+        <v>24</v>
+      </c>
+      <c r="X65" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="91" t="s">
@@ -16451,6 +16888,75 @@
         <v>24</v>
       </c>
       <c r="T66" t="s">
+        <v>24</v>
+      </c>
+      <c r="U66" t="s">
+        <v>24</v>
+      </c>
+      <c r="V66" t="s">
+        <v>24</v>
+      </c>
+      <c r="W66" t="s">
+        <v>24</v>
+      </c>
+      <c r="X66" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ66" t="s">
         <v>24</v>
       </c>
     </row>
@@ -16983,6 +17489,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Folha4"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17342,6 +17849,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Folha5"/>
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
@@ -18074,6 +18582,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Folha6"/>
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
@@ -18785,6 +19294,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Folha7"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19024,6 +19534,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884EB843-C6C0-4A6C-9A99-26A0ECEE886A}">
+  <sheetPr codeName="Folha8"/>
   <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
@@ -21102,6 +21613,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8957AFE0-F823-418D-AE8F-CCFFCF24BDAF}">
+  <sheetPr codeName="Folha9"/>
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">

--- a/Monitorizações/Template.xlsx
+++ b/Monitorizações/Template.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="282">
   <si>
     <t>BO</t>
   </si>
@@ -1564,7 +1564,7 @@
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="0" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="228">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0">
@@ -1930,6 +1930,64 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
@@ -5573,7 +5631,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="116" t="n">
-        <v>43593.98488788195</v>
+        <v>43595.566928113425</v>
       </c>
       <c r="C3" s="64"/>
       <c r="G3" s="63"/>
@@ -12768,7 +12826,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Folha3"/>
-  <dimension ref="A1:AR79"/>
+  <dimension ref="A1:CX79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G56" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="Q61" sqref="Q61:V66"/>
@@ -16301,8 +16359,182 @@
       <c r="AP61" s="168" t="n">
         <v>43594.98264891204</v>
       </c>
-      <c r="AQ61" t="n" s="169">
+      <c r="AQ61" s="169" t="n">
         <v>43594.98488788195</v>
+      </c>
+      <c r="AR61" s="170" t="n">
+        <v>43595.86115635416</v>
+      </c>
+      <c r="AS61" s="171" t="n">
+        <v>43595.86312732639</v>
+      </c>
+      <c r="AT61" s="172" t="n">
+        <v>43595.86555653935</v>
+      </c>
+      <c r="AU61" s="173" t="n">
+        <v>43595.86677206019</v>
+      </c>
+      <c r="AV61" s="174" t="n">
+        <v>43595.86704712963</v>
+      </c>
+      <c r="AW61" s="175" t="n">
+        <v>43595.871334814816</v>
+      </c>
+      <c r="AX61" s="176" t="n">
+        <v>43595.87253818287</v>
+      </c>
+      <c r="AY61" s="177" t="n">
+        <v>43595.87361458333</v>
+      </c>
+      <c r="AZ61" s="178" t="n">
+        <v>43595.885596458334</v>
+      </c>
+      <c r="BA61" s="179" t="n">
+        <v>43595.89395467593</v>
+      </c>
+      <c r="BB61" s="180" t="n">
+        <v>43595.89600869213</v>
+      </c>
+      <c r="BC61" s="181" t="n">
+        <v>43595.896521724535</v>
+      </c>
+      <c r="BD61" s="182" t="n">
+        <v>43595.90613790509</v>
+      </c>
+      <c r="BE61" s="183" t="n">
+        <v>43595.911734988425</v>
+      </c>
+      <c r="BF61" s="184" t="n">
+        <v>43595.912698831016</v>
+      </c>
+      <c r="BG61" s="185" t="n">
+        <v>43595.9165144213</v>
+      </c>
+      <c r="BH61" s="186" t="n">
+        <v>43595.936250810184</v>
+      </c>
+      <c r="BI61" s="187" t="n">
+        <v>43595.94254207176</v>
+      </c>
+      <c r="BJ61" s="188" t="n">
+        <v>43595.94453731481</v>
+      </c>
+      <c r="BK61" s="189" t="n">
+        <v>43595.945354421296</v>
+      </c>
+      <c r="BL61" s="190" t="n">
+        <v>43596.3631702662</v>
+      </c>
+      <c r="BM61" s="191" t="n">
+        <v>43596.37559028935</v>
+      </c>
+      <c r="BN61" s="192" t="n">
+        <v>43596.37675798611</v>
+      </c>
+      <c r="BO61" s="193" t="n">
+        <v>43596.37734104167</v>
+      </c>
+      <c r="BP61" s="194" t="n">
+        <v>43596.37851605324</v>
+      </c>
+      <c r="BQ61" s="195" t="n">
+        <v>43596.37888912037</v>
+      </c>
+      <c r="BR61" s="196" t="n">
+        <v>43596.381134097224</v>
+      </c>
+      <c r="BS61" s="197" t="n">
+        <v>43596.382517488426</v>
+      </c>
+      <c r="BT61" s="198" t="n">
+        <v>43596.38256980324</v>
+      </c>
+      <c r="BU61" s="199" t="n">
+        <v>43596.383879155095</v>
+      </c>
+      <c r="BV61" s="200" t="n">
+        <v>43596.385406030095</v>
+      </c>
+      <c r="BW61" s="201" t="n">
+        <v>43596.38569177083</v>
+      </c>
+      <c r="BX61" s="202" t="n">
+        <v>43596.400765335646</v>
+      </c>
+      <c r="BY61" s="203" t="n">
+        <v>43596.402163541665</v>
+      </c>
+      <c r="BZ61" s="204" t="n">
+        <v>43596.40641258102</v>
+      </c>
+      <c r="CA61" s="205" t="n">
+        <v>43596.40921049769</v>
+      </c>
+      <c r="CB61" s="206" t="n">
+        <v>43596.411152141205</v>
+      </c>
+      <c r="CC61" s="207" t="n">
+        <v>43596.432011689816</v>
+      </c>
+      <c r="CD61" s="208" t="n">
+        <v>43596.545837488426</v>
+      </c>
+      <c r="CE61" s="209" t="n">
+        <v>43596.994722256946</v>
+      </c>
+      <c r="CF61" s="210" t="n">
+        <v>43596.99592763889</v>
+      </c>
+      <c r="CG61" s="211" t="n">
+        <v>43596.99641946759</v>
+      </c>
+      <c r="CH61" s="212" t="n">
+        <v>43596.99685873843</v>
+      </c>
+      <c r="CI61" s="213" t="n">
+        <v>43596.99771231481</v>
+      </c>
+      <c r="CJ61" s="214" t="n">
+        <v>43596.9992055787</v>
+      </c>
+      <c r="CK61" s="215" t="n">
+        <v>43597.00433550926</v>
+      </c>
+      <c r="CL61" s="216" t="n">
+        <v>43597.006059259256</v>
+      </c>
+      <c r="CM61" s="217" t="n">
+        <v>43597.006378391205</v>
+      </c>
+      <c r="CN61" s="218" t="n">
+        <v>43597.00743408565</v>
+      </c>
+      <c r="CO61" s="219" t="n">
+        <v>43597.00893377315</v>
+      </c>
+      <c r="CP61" s="220" t="n">
+        <v>43597.00994988426</v>
+      </c>
+      <c r="CQ61" s="221" t="n">
+        <v>43597.01222673611</v>
+      </c>
+      <c r="CR61" s="222" t="n">
+        <v>43597.013217037034</v>
+      </c>
+      <c r="CS61" s="223" t="n">
+        <v>43597.01443859954</v>
+      </c>
+      <c r="CT61" s="224" t="n">
+        <v>43597.01480182871</v>
+      </c>
+      <c r="CU61" s="225" t="n">
+        <v>43597.01563356481</v>
+      </c>
+      <c r="CV61" s="226" t="n">
+        <v>43597.01601175926</v>
+      </c>
+      <c r="CW61" t="n" s="227">
+        <v>43597.566928113425</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -16435,6 +16667,180 @@
       <c r="AQ62" t="s">
         <v>23</v>
       </c>
+      <c r="AR62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG62" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY62" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CB62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CH62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CI62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CJ62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CL62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CM62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CN62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CO62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CP62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CQ62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CT62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CU62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CV62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CW62" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
@@ -16566,6 +16972,180 @@
       <c r="AQ63" t="s">
         <v>23</v>
       </c>
+      <c r="AR63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CB63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CH63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CI63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CJ63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CL63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CM63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CN63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CO63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CP63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CQ63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CT63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CU63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CV63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CW63" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="91" t="s">
@@ -16697,6 +17277,180 @@
       <c r="AQ64" t="s">
         <v>24</v>
       </c>
+      <c r="AR64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY64" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CB64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CH64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CI64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CJ64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CL64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CM64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CN64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CO64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CP64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CQ64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CT64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CU64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CV64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CW64" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
@@ -16828,6 +17582,180 @@
       <c r="AQ65" t="s">
         <v>24</v>
       </c>
+      <c r="AR65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY65" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CB65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CH65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CI65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CJ65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CL65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CM65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CN65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CO65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CP65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CQ65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CT65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CU65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CV65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CW65" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="91" t="s">
@@ -16957,6 +17885,180 @@
         <v>24</v>
       </c>
       <c r="AQ66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BJ66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BM66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BN66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY66" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CA66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CB66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CD66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CF66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CH66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CI66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CJ66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CK66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CL66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CM66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CN66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CO66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CP66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CQ66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CR66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CS66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CT66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CU66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CV66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CW66" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Monitorizações/Template.xlsx
+++ b/Monitorizações/Template.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="282">
   <si>
     <t>BO</t>
   </si>
@@ -1564,7 +1564,7 @@
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="0" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="231">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0">
@@ -1930,6 +1930,9 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
@@ -5631,7 +5634,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="116" t="n">
-        <v>43595.566928113425</v>
+        <v>43606.90489542824</v>
       </c>
       <c r="C3" s="64"/>
       <c r="G3" s="63"/>
@@ -12826,7 +12829,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Folha3"/>
-  <dimension ref="A1:CX79"/>
+  <dimension ref="A1:DA79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G56" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="Q61" sqref="Q61:V66"/>
@@ -16533,8 +16536,17 @@
       <c r="CV61" s="226" t="n">
         <v>43597.01601175926</v>
       </c>
-      <c r="CW61" t="n" s="227">
+      <c r="CW61" s="227" t="n">
         <v>43597.566928113425</v>
+      </c>
+      <c r="CX61" s="228" t="n">
+        <v>43605.771716469906</v>
+      </c>
+      <c r="CY61" s="229" t="n">
+        <v>43606.44781363426</v>
+      </c>
+      <c r="CZ61" t="n" s="230">
+        <v>43607.90489542824</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -16841,6 +16853,15 @@
       <c r="CW62" t="s">
         <v>24</v>
       </c>
+      <c r="CX62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CY62" t="s">
+        <v>24</v>
+      </c>
+      <c r="CZ62" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
@@ -17146,6 +17167,15 @@
       <c r="CW63" t="s">
         <v>24</v>
       </c>
+      <c r="CX63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CY63" t="s">
+        <v>24</v>
+      </c>
+      <c r="CZ63" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="91" t="s">
@@ -17451,6 +17481,15 @@
       <c r="CW64" t="s">
         <v>24</v>
       </c>
+      <c r="CX64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CY64" t="s">
+        <v>24</v>
+      </c>
+      <c r="CZ64" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
@@ -17756,6 +17795,15 @@
       <c r="CW65" t="s">
         <v>24</v>
       </c>
+      <c r="CX65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CY65" t="s">
+        <v>24</v>
+      </c>
+      <c r="CZ65" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="91" t="s">
@@ -18059,6 +18107,15 @@
         <v>24</v>
       </c>
       <c r="CW66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CX66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CY66" t="s">
+        <v>24</v>
+      </c>
+      <c r="CZ66" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Monitorizações/Template.xlsx
+++ b/Monitorizações/Template.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="282">
   <si>
     <t>BO</t>
   </si>
@@ -1564,7 +1564,7 @@
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="0" fontId="12" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="263">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0">
@@ -1930,6 +1930,38 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
@@ -5634,7 +5666,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="116" t="n">
-        <v>43606.90489542824</v>
+        <v>43728.999074085645</v>
       </c>
       <c r="C3" s="64"/>
       <c r="G3" s="63"/>
@@ -12829,7 +12861,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Folha3"/>
-  <dimension ref="A1:DA79"/>
+  <dimension ref="A1:EG79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G56" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="Q61" sqref="Q61:V66"/>
@@ -16545,8 +16577,104 @@
       <c r="CY61" s="229" t="n">
         <v>43606.44781363426</v>
       </c>
-      <c r="CZ61" t="n" s="230">
+      <c r="CZ61" s="230" t="n">
         <v>43607.90489542824</v>
+      </c>
+      <c r="DA61" s="231" t="n">
+        <v>43615.93375261574</v>
+      </c>
+      <c r="DB61" s="232" t="n">
+        <v>43725.54357513889</v>
+      </c>
+      <c r="DC61" s="233" t="n">
+        <v>43726.88692895833</v>
+      </c>
+      <c r="DD61" s="234" t="n">
+        <v>43728.92227815972</v>
+      </c>
+      <c r="DE61" s="235" t="n">
+        <v>43728.92298391204</v>
+      </c>
+      <c r="DF61" s="236" t="n">
+        <v>43729.598404780096</v>
+      </c>
+      <c r="DG61" s="237" t="n">
+        <v>43729.89501980324</v>
+      </c>
+      <c r="DH61" s="238" t="n">
+        <v>43729.90502320602</v>
+      </c>
+      <c r="DI61" s="239" t="n">
+        <v>43729.90583224537</v>
+      </c>
+      <c r="DJ61" s="240" t="n">
+        <v>43729.924386493054</v>
+      </c>
+      <c r="DK61" s="241" t="n">
+        <v>43729.92544151621</v>
+      </c>
+      <c r="DL61" s="242" t="n">
+        <v>43729.92591949074</v>
+      </c>
+      <c r="DM61" s="243" t="n">
+        <v>43729.92622832176</v>
+      </c>
+      <c r="DN61" s="244" t="n">
+        <v>43729.92834387731</v>
+      </c>
+      <c r="DO61" s="245" t="n">
+        <v>43729.93081760417</v>
+      </c>
+      <c r="DP61" s="246" t="n">
+        <v>43729.931374375</v>
+      </c>
+      <c r="DQ61" s="247" t="n">
+        <v>43729.93183018518</v>
+      </c>
+      <c r="DR61" s="248" t="n">
+        <v>43729.93214762732</v>
+      </c>
+      <c r="DS61" s="249" t="n">
+        <v>43729.93248684028</v>
+      </c>
+      <c r="DT61" s="250" t="n">
+        <v>43729.93371424769</v>
+      </c>
+      <c r="DU61" s="251" t="n">
+        <v>43729.947612731485</v>
+      </c>
+      <c r="DV61" s="252" t="n">
+        <v>43729.95025107639</v>
+      </c>
+      <c r="DW61" s="253" t="n">
+        <v>43729.953301898146</v>
+      </c>
+      <c r="DX61" s="254" t="n">
+        <v>43729.95380753472</v>
+      </c>
+      <c r="DY61" s="255" t="n">
+        <v>43729.95604997685</v>
+      </c>
+      <c r="DZ61" s="256" t="n">
+        <v>43729.969477893515</v>
+      </c>
+      <c r="EA61" s="257" t="n">
+        <v>43729.973257847225</v>
+      </c>
+      <c r="EB61" s="258" t="n">
+        <v>43729.97927935185</v>
+      </c>
+      <c r="EC61" s="259" t="n">
+        <v>43729.98136174768</v>
+      </c>
+      <c r="ED61" s="260" t="n">
+        <v>43729.98186494213</v>
+      </c>
+      <c r="EE61" s="261" t="n">
+        <v>43729.99698638889</v>
+      </c>
+      <c r="EF61" t="n" s="262">
+        <v>43729.999074085645</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -16862,6 +16990,102 @@
       <c r="CZ62" t="s">
         <v>24</v>
       </c>
+      <c r="DA62" t="s">
+        <v>24</v>
+      </c>
+      <c r="DB62" t="s">
+        <v>24</v>
+      </c>
+      <c r="DC62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DD62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DE62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DG62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DH62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DI62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DJ62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DK62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DL62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DM62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DN62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DO62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DP62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DQ62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DR62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DS62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DT62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DU62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DV62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY62" t="s">
+        <v>23</v>
+      </c>
+      <c r="DZ62" t="s">
+        <v>23</v>
+      </c>
+      <c r="EA62" t="s">
+        <v>23</v>
+      </c>
+      <c r="EB62" t="s">
+        <v>23</v>
+      </c>
+      <c r="EC62" t="s">
+        <v>23</v>
+      </c>
+      <c r="ED62" t="s">
+        <v>23</v>
+      </c>
+      <c r="EE62" t="s">
+        <v>23</v>
+      </c>
+      <c r="EF62" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
@@ -17176,6 +17400,102 @@
       <c r="CZ63" t="s">
         <v>24</v>
       </c>
+      <c r="DA63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DB63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DC63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DD63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DE63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DF63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DG63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DH63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DI63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DJ63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DK63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DL63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DM63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DN63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DO63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DP63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DQ63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DR63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DS63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DT63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DU63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DV63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DW63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DX63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DY63" t="s">
+        <v>24</v>
+      </c>
+      <c r="DZ63" t="s">
+        <v>24</v>
+      </c>
+      <c r="EA63" t="s">
+        <v>24</v>
+      </c>
+      <c r="EB63" t="s">
+        <v>24</v>
+      </c>
+      <c r="EC63" t="s">
+        <v>24</v>
+      </c>
+      <c r="ED63" t="s">
+        <v>24</v>
+      </c>
+      <c r="EE63" t="s">
+        <v>24</v>
+      </c>
+      <c r="EF63" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="91" t="s">
@@ -17490,6 +17810,102 @@
       <c r="CZ64" t="s">
         <v>24</v>
       </c>
+      <c r="DA64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DB64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DC64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DD64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DE64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DF64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DG64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DH64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DI64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DJ64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DK64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DL64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DM64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DN64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DO64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DP64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DQ64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DR64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DS64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DT64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DU64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DV64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DW64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DX64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DY64" t="s">
+        <v>24</v>
+      </c>
+      <c r="DZ64" t="s">
+        <v>24</v>
+      </c>
+      <c r="EA64" t="s">
+        <v>24</v>
+      </c>
+      <c r="EB64" t="s">
+        <v>24</v>
+      </c>
+      <c r="EC64" t="s">
+        <v>24</v>
+      </c>
+      <c r="ED64" t="s">
+        <v>24</v>
+      </c>
+      <c r="EE64" t="s">
+        <v>24</v>
+      </c>
+      <c r="EF64" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
@@ -17804,6 +18220,102 @@
       <c r="CZ65" t="s">
         <v>24</v>
       </c>
+      <c r="DA65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DB65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DC65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DD65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DE65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DF65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DG65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DH65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DI65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DJ65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DK65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DL65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DM65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DN65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DO65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DP65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DQ65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DR65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DS65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DT65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DU65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DV65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DW65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DX65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DY65" t="s">
+        <v>24</v>
+      </c>
+      <c r="DZ65" t="s">
+        <v>24</v>
+      </c>
+      <c r="EA65" t="s">
+        <v>24</v>
+      </c>
+      <c r="EB65" t="s">
+        <v>24</v>
+      </c>
+      <c r="EC65" t="s">
+        <v>24</v>
+      </c>
+      <c r="ED65" t="s">
+        <v>24</v>
+      </c>
+      <c r="EE65" t="s">
+        <v>24</v>
+      </c>
+      <c r="EF65" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="91" t="s">
@@ -18116,6 +18628,12 @@
         <v>24</v>
       </c>
       <c r="CZ66" t="s">
+        <v>24</v>
+      </c>
+      <c r="DA66" t="s">
+        <v>24</v>
+      </c>
+      <c r="DB66" t="s">
         <v>24</v>
       </c>
     </row>
